--- a/simple/data8.xlsx
+++ b/simple/data8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\kassandra\data\simple\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrg\Desktop\ЦМП\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAA554F-FBB5-4971-BDA0-CE42C6E21E2C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEFEDDF-62B9-40C9-9B7D-1BA7520D8CBD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3523,7 +3523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="270">
   <si>
     <t>Country</t>
   </si>
@@ -4346,12 +4346,6 @@
   </si>
   <si>
     <t>2018 Q3</t>
-  </si>
-  <si>
-    <t>Euro Area (отличие во втором знаке)</t>
-  </si>
-  <si>
-    <t>Russian Federation (нашел данные, но цифры не сходятся)</t>
   </si>
 </sst>
 </file>
@@ -5859,9 +5853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA931"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5931,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="N1" s="150" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="O1" s="161" t="s">
         <v>1</v>
@@ -5952,7 +5944,7 @@
         <v>145</v>
       </c>
       <c r="U1" s="156" t="s">
-        <v>270</v>
+        <v>145</v>
       </c>
       <c r="V1" s="153" t="s">
         <v>172</v>
@@ -8742,29 +8734,29 @@
         <v>0.28476593155257818</v>
       </c>
       <c r="AP35" s="144">
-        <f t="shared" ref="AP35:AP98" si="15">AX35/AX34</f>
+        <f>AX35/AX34</f>
         <v>1.1213155021834069</v>
       </c>
       <c r="AQ35" s="53">
         <v>60.101402999999998</v>
       </c>
       <c r="AR35" s="87">
-        <f t="shared" ref="AR35:AR98" si="16">N35*W35/AA35</f>
+        <f t="shared" ref="AR35:AR98" si="15">N35*W35/AA35</f>
         <v>6186.9922057592585</v>
       </c>
       <c r="AS35" s="87">
-        <f t="shared" ref="AS35:AS98" si="17">AR35/R35</f>
+        <f t="shared" ref="AS35:AS98" si="16">AR35/R35</f>
         <v>42.312031662318908</v>
       </c>
       <c r="AT35" s="56">
         <v>-0.115877706952594</v>
       </c>
       <c r="AU35" s="139">
-        <f t="shared" ref="AU35:AU98" si="18">(V35/100)^0.45*(Y35/100)^0.55</f>
+        <f t="shared" ref="AU35:AU98" si="17">(V35/100)^0.45*(Y35/100)^0.55</f>
         <v>0.81538113009374602</v>
       </c>
       <c r="AV35" s="143">
-        <f t="shared" ref="AV35:AV98" si="19">(S35/S34)^0.45*(X35/X34)^0.55</f>
+        <f t="shared" ref="AV35:AV98" si="18">(S35/S34)^0.45*(X35/X34)^0.55</f>
         <v>1.0082539150357532</v>
       </c>
       <c r="AW35" s="139">
@@ -8772,7 +8764,7 @@
         <v>3.7941666666666687</v>
       </c>
       <c r="AX35" s="86">
-        <f t="shared" ref="AX35:AX98" si="20">(H35/100+1)*AX34</f>
+        <f t="shared" ref="AX35:AX98" si="19">(H35/100+1)*AX34</f>
         <v>1.3202120822622114</v>
       </c>
       <c r="AY35" s="67"/>
@@ -8918,29 +8910,29 @@
         <v>0.28262025294553822</v>
       </c>
       <c r="AP36" s="144">
-        <f t="shared" si="15"/>
+        <f>AX36/AX35</f>
         <v>1.124376293050992</v>
       </c>
       <c r="AQ36" s="53">
         <v>61.770721999999999</v>
       </c>
       <c r="AR36" s="87">
+        <f t="shared" si="15"/>
+        <v>7696.4437454667732</v>
+      </c>
+      <c r="AS36" s="87">
         <f t="shared" si="16"/>
-        <v>7696.4437454667732</v>
-      </c>
-      <c r="AS36" s="87">
-        <f t="shared" si="17"/>
         <v>52.725841060668031</v>
       </c>
       <c r="AT36" s="56">
         <v>2.1378337925746799E-2</v>
       </c>
       <c r="AU36" s="139">
+        <f t="shared" si="17"/>
+        <v>0.82499083138550999</v>
+      </c>
+      <c r="AV36" s="143">
         <f t="shared" si="18"/>
-        <v>0.82499083138550999</v>
-      </c>
-      <c r="AV36" s="143">
-        <f t="shared" si="19"/>
         <v>1.0046980360517699</v>
       </c>
       <c r="AW36" s="139">
@@ -8948,7 +8940,7 @@
         <v>4.016333333333332</v>
       </c>
       <c r="AX36" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1.4844151670951165</v>
       </c>
       <c r="AY36" s="67"/>
@@ -9094,29 +9086,29 @@
         <v>0.31743212816541</v>
       </c>
       <c r="AP37" s="144">
-        <f t="shared" si="15"/>
+        <f>AX37/AX36</f>
         <v>1.149691525056824</v>
       </c>
       <c r="AQ37" s="53">
         <v>65.753388000000001</v>
       </c>
       <c r="AR37" s="87">
+        <f t="shared" si="15"/>
+        <v>10423.310358017477</v>
+      </c>
+      <c r="AS37" s="87">
         <f t="shared" si="16"/>
-        <v>10423.310358017477</v>
-      </c>
-      <c r="AS37" s="87">
-        <f t="shared" si="17"/>
         <v>71.447345621418322</v>
       </c>
       <c r="AT37" s="56">
         <v>0.24398521036085599</v>
       </c>
       <c r="AU37" s="139">
+        <f t="shared" si="17"/>
+        <v>0.8375933055046586</v>
+      </c>
+      <c r="AV37" s="143">
         <f t="shared" si="18"/>
-        <v>0.8375933055046586</v>
-      </c>
-      <c r="AV37" s="143">
-        <f t="shared" si="19"/>
         <v>1.0049058751788968</v>
       </c>
       <c r="AW37" s="139">
@@ -9124,7 +9116,7 @@
         <v>4.4621666666666693</v>
       </c>
       <c r="AX37" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1.7066195372750648</v>
       </c>
       <c r="AY37" s="67"/>
@@ -9270,29 +9262,29 @@
         <v>0.32640732056807614</v>
       </c>
       <c r="AP38" s="144">
-        <f t="shared" si="15"/>
+        <f>AX38/AX37</f>
         <v>1.104688382602147</v>
       </c>
       <c r="AQ38" s="53">
         <v>68.188411000000002</v>
       </c>
       <c r="AR38" s="87">
+        <f t="shared" si="15"/>
+        <v>13083.557658242224</v>
+      </c>
+      <c r="AS38" s="87">
         <f t="shared" si="16"/>
-        <v>13083.557658242224</v>
-      </c>
-      <c r="AS38" s="87">
-        <f t="shared" si="17"/>
         <v>89.659466563249765</v>
       </c>
       <c r="AT38" s="56">
         <v>0.39133155743390002</v>
       </c>
       <c r="AU38" s="139">
+        <f t="shared" si="17"/>
+        <v>0.84329606222296682</v>
+      </c>
+      <c r="AV38" s="143">
         <f t="shared" si="18"/>
-        <v>0.84329606222296682</v>
-      </c>
-      <c r="AV38" s="143">
-        <f t="shared" si="19"/>
         <v>1.0082747329755484</v>
       </c>
       <c r="AW38" s="139">
@@ -9300,7 +9292,7 @@
         <v>4.7151666666666685</v>
       </c>
       <c r="AX38" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1.8852827763496158</v>
       </c>
       <c r="AY38" s="67"/>
@@ -9446,29 +9438,29 @@
         <v>0.37064953258132299</v>
       </c>
       <c r="AP39" s="144">
-        <f t="shared" si="15"/>
+        <f>AX39/AX38</f>
         <v>1.0657064939492071</v>
       </c>
       <c r="AQ39" s="53">
         <v>71.698049999999995</v>
       </c>
       <c r="AR39" s="87">
+        <f t="shared" si="15"/>
+        <v>12706.95411603217</v>
+      </c>
+      <c r="AS39" s="87">
         <f t="shared" si="16"/>
-        <v>12706.95411603217</v>
-      </c>
-      <c r="AS39" s="87">
-        <f t="shared" si="17"/>
         <v>87.013668844462046</v>
       </c>
       <c r="AT39" s="56">
         <v>0.283347762941841</v>
       </c>
       <c r="AU39" s="139">
+        <f t="shared" si="17"/>
+        <v>0.85548027962469708</v>
+      </c>
+      <c r="AV39" s="143">
         <f t="shared" si="18"/>
-        <v>0.85548027962469708</v>
-      </c>
-      <c r="AV39" s="143">
-        <f t="shared" si="19"/>
         <v>1.0085775580517384</v>
       </c>
       <c r="AW39" s="139">
@@ -9476,7 +9468,7 @@
         <v>5.367333333333332</v>
       </c>
       <c r="AX39" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.0091580976863761</v>
       </c>
       <c r="AY39" s="67"/>
@@ -9622,29 +9614,29 @@
         <v>0.39188805165858986</v>
       </c>
       <c r="AP40" s="144">
-        <f t="shared" si="15"/>
+        <f>AX40/AX39</f>
         <v>1.0742103158736507</v>
       </c>
       <c r="AQ40" s="53">
         <v>74.172650000000004</v>
       </c>
       <c r="AR40" s="87">
+        <f t="shared" si="15"/>
+        <v>13957.118365912933</v>
+      </c>
+      <c r="AS40" s="87">
         <f t="shared" si="16"/>
-        <v>13957.118365912933</v>
-      </c>
-      <c r="AS40" s="87">
-        <f t="shared" si="17"/>
         <v>95.488132437864707</v>
       </c>
       <c r="AT40" s="56">
         <v>0.299789871575876</v>
       </c>
       <c r="AU40" s="139">
+        <f t="shared" si="17"/>
+        <v>0.85786659666558274</v>
+      </c>
+      <c r="AV40" s="143">
         <f t="shared" si="18"/>
-        <v>0.85786659666558274</v>
-      </c>
-      <c r="AV40" s="143">
-        <f t="shared" si="19"/>
         <v>1.0070549206872608</v>
       </c>
       <c r="AW40" s="139">
@@ -9652,7 +9644,7 @@
         <v>5.7189999999999994</v>
       </c>
       <c r="AX40" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.1582583547557852</v>
       </c>
       <c r="AY40" s="67"/>
@@ -9798,29 +9790,29 @@
         <v>0.42695531098234479</v>
       </c>
       <c r="AP41" s="144">
-        <f t="shared" si="15"/>
+        <f>AX41/AX40</f>
         <v>1.057768182833321</v>
       </c>
       <c r="AQ41" s="53">
         <v>75.669241</v>
       </c>
       <c r="AR41" s="87">
+        <f t="shared" si="15"/>
+        <v>15008.686455529918</v>
+      </c>
+      <c r="AS41" s="87">
         <f t="shared" si="16"/>
-        <v>15008.686455529918</v>
-      </c>
-      <c r="AS41" s="87">
-        <f t="shared" si="17"/>
         <v>102.60806207291839</v>
       </c>
       <c r="AT41" s="56">
         <v>0.29669384796821302</v>
       </c>
       <c r="AU41" s="139">
+        <f t="shared" si="17"/>
+        <v>0.86373813798587895</v>
+      </c>
+      <c r="AV41" s="143">
         <f t="shared" si="18"/>
-        <v>0.86373813798587895</v>
-      </c>
-      <c r="AV41" s="143">
-        <f t="shared" si="19"/>
         <v>1.0055512062511225</v>
       </c>
       <c r="AW41" s="139">
@@ -9828,7 +9820,7 @@
         <v>5.8193333333333319</v>
       </c>
       <c r="AX41" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.2829370179948598</v>
       </c>
       <c r="AY41" s="67"/>
@@ -9974,29 +9966,29 @@
         <v>0.40394192796831674</v>
       </c>
       <c r="AP42" s="144">
-        <f t="shared" si="15"/>
+        <f>AX42/AX41</f>
         <v>1.0393969549815847</v>
       </c>
       <c r="AQ42" s="53">
         <v>81.701851000000005</v>
       </c>
       <c r="AR42" s="87">
+        <f t="shared" si="15"/>
+        <v>14220.975982606</v>
+      </c>
+      <c r="AS42" s="87">
         <f t="shared" si="16"/>
-        <v>14220.975982606</v>
-      </c>
-      <c r="AS42" s="87">
-        <f t="shared" si="17"/>
         <v>97.201552811994205</v>
       </c>
       <c r="AT42" s="56">
         <v>0.16917849532256499</v>
       </c>
       <c r="AU42" s="139">
+        <f t="shared" si="17"/>
+        <v>0.87503342756463787</v>
+      </c>
+      <c r="AV42" s="143">
         <f t="shared" si="18"/>
-        <v>0.87503342756463787</v>
-      </c>
-      <c r="AV42" s="143">
-        <f t="shared" si="19"/>
         <v>1.0064911082486456</v>
       </c>
       <c r="AW42" s="139">
@@ -10004,7 +9996,7 @@
         <v>5.2138333333333318</v>
       </c>
       <c r="AX42" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.3728777849185967</v>
       </c>
       <c r="AY42" s="67"/>
@@ -10150,29 +10142,29 @@
         <v>0.42879119181724912</v>
       </c>
       <c r="AP43" s="144">
-        <f t="shared" si="15"/>
+        <f>AX43/AX42</f>
         <v>1.0322014051522248</v>
       </c>
       <c r="AQ43" s="53">
         <v>82.86103</v>
       </c>
       <c r="AR43" s="87">
+        <f t="shared" si="15"/>
+        <v>14159.761782738646</v>
+      </c>
+      <c r="AS43" s="87">
         <f t="shared" si="16"/>
-        <v>14159.761782738646</v>
-      </c>
-      <c r="AS43" s="87">
-        <f t="shared" si="17"/>
         <v>96.834112597117127</v>
       </c>
       <c r="AT43" s="56">
         <v>9.3532957959071794E-2</v>
       </c>
       <c r="AU43" s="139">
+        <f t="shared" si="17"/>
+        <v>0.877650596771689</v>
+      </c>
+      <c r="AV43" s="143">
         <f t="shared" si="18"/>
-        <v>0.877650596771689</v>
-      </c>
-      <c r="AV43" s="143">
-        <f t="shared" si="19"/>
         <v>1.0121371443331597</v>
       </c>
       <c r="AW43" s="139">
@@ -10180,7 +10172,7 @@
         <v>4.4496666666666682</v>
       </c>
       <c r="AX43" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.449287783847474</v>
       </c>
       <c r="AY43" s="67"/>
@@ -10326,29 +10318,29 @@
         <v>0.45820237614695564</v>
       </c>
       <c r="AP44" s="144">
-        <f t="shared" si="15"/>
+        <f>AX44/AX43</f>
         <v>1.0249574588769141</v>
       </c>
       <c r="AQ44" s="53">
         <v>88.853611999999998</v>
       </c>
       <c r="AR44" s="87">
+        <f t="shared" si="15"/>
+        <v>13968.316542744165</v>
+      </c>
+      <c r="AS44" s="87">
         <f t="shared" si="16"/>
-        <v>13968.316542744165</v>
-      </c>
-      <c r="AS44" s="87">
-        <f t="shared" si="17"/>
         <v>95.630170900443403</v>
       </c>
       <c r="AT44" s="56">
         <v>1.0694595269125501E-2</v>
       </c>
       <c r="AU44" s="139">
+        <f t="shared" si="17"/>
+        <v>0.87652762490284519</v>
+      </c>
+      <c r="AV44" s="143">
         <f t="shared" si="18"/>
-        <v>0.87652762490284519</v>
-      </c>
-      <c r="AV44" s="143">
-        <f t="shared" si="19"/>
         <v>1.0009250056816605</v>
       </c>
       <c r="AW44" s="139">
@@ -10356,7 +10348,7 @@
         <v>3.8446666666666687</v>
       </c>
       <c r="AX44" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.5104157829905756</v>
       </c>
       <c r="AY44" s="67"/>
@@ -10502,29 +10494,29 @@
         <v>0.50398154472147472</v>
       </c>
       <c r="AP45" s="144">
-        <f t="shared" si="15"/>
+        <f>AX45/AX44</f>
         <v>1.0027670171555065</v>
       </c>
       <c r="AQ45" s="53">
         <v>92.868081000000004</v>
       </c>
       <c r="AR45" s="87">
+        <f t="shared" si="15"/>
+        <v>12328.607833219712</v>
+      </c>
+      <c r="AS45" s="87">
         <f t="shared" si="16"/>
-        <v>12328.607833219712</v>
-      </c>
-      <c r="AS45" s="87">
-        <f t="shared" si="17"/>
         <v>84.523569403672781</v>
       </c>
       <c r="AT45" s="56">
         <v>-0.18153932183083901</v>
       </c>
       <c r="AU45" s="139">
+        <f t="shared" si="17"/>
+        <v>0.87831517042952045</v>
+      </c>
+      <c r="AV45" s="143">
         <f t="shared" si="18"/>
-        <v>0.87831517042952045</v>
-      </c>
-      <c r="AV45" s="143">
-        <f t="shared" si="19"/>
         <v>0.99999740280297655</v>
       </c>
       <c r="AW45" s="139">
@@ -10532,7 +10524,7 @@
         <v>2.721333333333332</v>
       </c>
       <c r="AX45" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.5173621465295648</v>
       </c>
       <c r="AY45" s="67"/>
@@ -10678,29 +10670,29 @@
         <v>0.46683935980240637</v>
       </c>
       <c r="AP46" s="144">
-        <f t="shared" si="15"/>
+        <f>AX46/AX45</f>
         <v>0.9972406181015453</v>
       </c>
       <c r="AQ46" s="53">
         <v>95.798209</v>
       </c>
       <c r="AR46" s="87">
+        <f t="shared" si="15"/>
+        <v>12461.080178173717</v>
+      </c>
+      <c r="AS46" s="87">
         <f t="shared" si="16"/>
-        <v>12461.080178173717</v>
-      </c>
-      <c r="AS46" s="87">
-        <f t="shared" si="17"/>
         <v>85.555549150174173</v>
       </c>
       <c r="AT46" s="56">
         <v>-0.236594824735713</v>
       </c>
       <c r="AU46" s="139">
+        <f t="shared" si="17"/>
+        <v>0.88358292445867936</v>
+      </c>
+      <c r="AV46" s="143">
         <f t="shared" si="18"/>
-        <v>0.88358292445867936</v>
-      </c>
-      <c r="AV46" s="143">
-        <f t="shared" si="19"/>
         <v>1.0050390552166886</v>
       </c>
       <c r="AW46" s="139">
@@ -10708,7 +10700,7 @@
         <v>2.4608333333333317</v>
       </c>
       <c r="AX46" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.510415782990576</v>
       </c>
       <c r="AY46" s="67"/>
@@ -10854,29 +10846,29 @@
         <v>0.50541172556697367</v>
       </c>
       <c r="AP47" s="144">
-        <f t="shared" si="15"/>
+        <f>AX47/AX46</f>
         <v>1.0442722744881017</v>
       </c>
       <c r="AQ47" s="53">
         <v>99.274148999999994</v>
       </c>
       <c r="AR47" s="87">
+        <f t="shared" si="15"/>
+        <v>13526.708446032184</v>
+      </c>
+      <c r="AS47" s="87">
         <f t="shared" si="16"/>
-        <v>13526.708446032184</v>
-      </c>
-      <c r="AS47" s="87">
-        <f t="shared" si="17"/>
         <v>92.990715481133932</v>
       </c>
       <c r="AT47" s="56">
         <v>-0.21875815999534501</v>
       </c>
       <c r="AU47" s="139">
+        <f t="shared" si="17"/>
+        <v>0.88825193872420094</v>
+      </c>
+      <c r="AV47" s="143">
         <f t="shared" si="18"/>
-        <v>0.88825193872420094</v>
-      </c>
-      <c r="AV47" s="143">
-        <f t="shared" si="19"/>
         <v>1.0104627146717986</v>
       </c>
       <c r="AW47" s="139">
@@ -10884,7 +10876,7 @@
         <v>2.4880000000000004</v>
       </c>
       <c r="AX47" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.6215575996143974</v>
       </c>
       <c r="AY47" s="67"/>
@@ -11030,29 +11022,29 @@
         <v>0.52357006364982162</v>
       </c>
       <c r="AP48" s="144">
-        <f t="shared" si="15"/>
+        <f>AX48/AX47</f>
         <v>1.0710121886592476</v>
       </c>
       <c r="AQ48" s="53">
         <v>103.63317000000001</v>
       </c>
       <c r="AR48" s="87">
+        <f t="shared" si="15"/>
+        <v>15402.424224831948</v>
+      </c>
+      <c r="AS48" s="87">
         <f t="shared" si="16"/>
-        <v>15402.424224831948</v>
-      </c>
-      <c r="AS48" s="87">
-        <f t="shared" si="17"/>
         <v>106.00721440942593</v>
       </c>
       <c r="AT48" s="56">
         <v>-0.15191974547409701</v>
       </c>
       <c r="AU48" s="139">
+        <f t="shared" si="17"/>
+        <v>0.89215665088704965</v>
+      </c>
+      <c r="AV48" s="143">
         <f t="shared" si="18"/>
-        <v>0.89215665088704965</v>
-      </c>
-      <c r="AV48" s="143">
-        <f t="shared" si="19"/>
         <v>1.002595775100136</v>
       </c>
       <c r="AW48" s="139">
@@ -11060,7 +11052,7 @@
         <v>2.4420000000000002</v>
       </c>
       <c r="AX48" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.8077201424592992</v>
       </c>
       <c r="AY48" s="67"/>
@@ -11206,29 +11198,29 @@
         <v>0.58293537375361448</v>
       </c>
       <c r="AP49" s="144">
-        <f t="shared" si="15"/>
+        <f>AX49/AX48</f>
         <v>1.0465116279069766</v>
       </c>
       <c r="AQ49" s="53">
         <v>104.62318</v>
       </c>
       <c r="AR49" s="87">
+        <f t="shared" si="15"/>
+        <v>16150.176737372103</v>
+      </c>
+      <c r="AS49" s="87">
         <f t="shared" si="16"/>
-        <v>16150.176737372103</v>
-      </c>
-      <c r="AS49" s="87">
-        <f t="shared" si="17"/>
         <v>111.27692656748616</v>
       </c>
       <c r="AT49" s="56">
         <v>-0.16583751231899799</v>
       </c>
       <c r="AU49" s="139">
+        <f t="shared" si="17"/>
+        <v>0.89270077748062882</v>
+      </c>
+      <c r="AV49" s="143">
         <f t="shared" si="18"/>
-        <v>0.89270077748062882</v>
-      </c>
-      <c r="AV49" s="143">
-        <f t="shared" si="19"/>
         <v>1.0041502179653532</v>
       </c>
       <c r="AW49" s="139">
@@ -11236,7 +11228,7 @@
         <v>2.1438333333333315</v>
       </c>
       <c r="AX49" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.9383117769922893</v>
       </c>
       <c r="AY49" s="67"/>
@@ -11382,29 +11374,29 @@
         <v>0.57705674940298735</v>
       </c>
       <c r="AP50" s="144">
-        <f t="shared" si="15"/>
+        <f>AX50/AX49</f>
         <v>1.026950354609929</v>
       </c>
       <c r="AQ50" s="53">
         <v>104.67758000000001</v>
       </c>
       <c r="AR50" s="87">
+        <f t="shared" si="15"/>
+        <v>17767.411250888956</v>
+      </c>
+      <c r="AS50" s="87">
         <f t="shared" si="16"/>
-        <v>17767.411250888956</v>
-      </c>
-      <c r="AS50" s="87">
-        <f t="shared" si="17"/>
         <v>122.56430045313978</v>
       </c>
       <c r="AT50" s="56">
         <v>-0.13018949175792099</v>
       </c>
       <c r="AU50" s="139">
+        <f t="shared" si="17"/>
+        <v>0.89430127140116011</v>
+      </c>
+      <c r="AV50" s="143">
         <f t="shared" si="18"/>
-        <v>0.89430127140116011</v>
-      </c>
-      <c r="AV50" s="143">
-        <f t="shared" si="19"/>
         <v>1.0086062649096437</v>
       </c>
       <c r="AW50" s="139">
@@ -11412,7 +11404,7 @@
         <v>1.8575000000000002</v>
       </c>
       <c r="AX50" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3.0175003213367622</v>
       </c>
       <c r="AY50" s="67"/>
@@ -11558,29 +11550,29 @@
         <v>0.66129611866100191</v>
       </c>
       <c r="AP51" s="144">
-        <f t="shared" si="15"/>
+        <f>AX51/AX50</f>
         <v>1.0269337016574585</v>
       </c>
       <c r="AQ51" s="53">
         <v>108.39444</v>
       </c>
       <c r="AR51" s="87">
+        <f t="shared" si="15"/>
+        <v>15569.945019702534</v>
+      </c>
+      <c r="AS51" s="87">
         <f t="shared" si="16"/>
-        <v>15569.945019702534</v>
-      </c>
-      <c r="AS51" s="87">
-        <f t="shared" si="17"/>
         <v>107.54655545679842</v>
       </c>
       <c r="AT51" s="56">
         <v>-0.320211085790995</v>
       </c>
       <c r="AU51" s="139">
+        <f t="shared" si="17"/>
+        <v>0.89907823783339302</v>
+      </c>
+      <c r="AV51" s="143">
         <f t="shared" si="18"/>
-        <v>0.89907823783339302</v>
-      </c>
-      <c r="AV51" s="143">
-        <f t="shared" si="19"/>
         <v>1.0050197346334901</v>
       </c>
       <c r="AW51" s="139">
@@ -11588,7 +11580,7 @@
         <v>1.7161666666666684</v>
       </c>
       <c r="AX51" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3.0987727747429314</v>
       </c>
       <c r="AY51" s="67"/>
@@ -11734,29 +11726,29 @@
         <v>0.68474130893900764</v>
       </c>
       <c r="AP52" s="144">
-        <f t="shared" si="15"/>
+        <f>AX52/AX51</f>
         <v>1.0419188522752723</v>
       </c>
       <c r="AQ52" s="53">
         <v>111.65388</v>
       </c>
       <c r="AR52" s="87">
+        <f t="shared" si="15"/>
+        <v>17957.748043156338</v>
+      </c>
+      <c r="AS52" s="87">
         <f t="shared" si="16"/>
-        <v>17957.748043156338</v>
-      </c>
-      <c r="AS52" s="87">
-        <f t="shared" si="17"/>
         <v>124.21404045871121</v>
       </c>
       <c r="AT52" s="56">
         <v>-0.233886590093031</v>
       </c>
       <c r="AU52" s="139">
+        <f t="shared" si="17"/>
+        <v>0.90938884533829822</v>
+      </c>
+      <c r="AV52" s="143">
         <f t="shared" si="18"/>
-        <v>0.90938884533829822</v>
-      </c>
-      <c r="AV52" s="143">
-        <f t="shared" si="19"/>
         <v>1.0032658213287593</v>
       </c>
       <c r="AW52" s="139">
@@ -11764,7 +11756,7 @@
         <v>1.4951666666666685</v>
       </c>
       <c r="AX52" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3.2286697729220157</v>
       </c>
       <c r="AY52" s="67"/>
@@ -11910,29 +11902,29 @@
         <v>0.78370197667161645</v>
       </c>
       <c r="AP53" s="144">
-        <f t="shared" si="15"/>
+        <f>AX53/AX52</f>
         <v>1.0266781411359769</v>
       </c>
       <c r="AQ53" s="53">
         <v>118.47261</v>
       </c>
       <c r="AR53" s="87">
+        <f t="shared" si="15"/>
+        <v>18328.173998038917</v>
+      </c>
+      <c r="AS53" s="87">
         <f t="shared" si="16"/>
-        <v>18328.173998038917</v>
-      </c>
-      <c r="AS53" s="87">
-        <f t="shared" si="17"/>
         <v>126.95630548771121</v>
       </c>
       <c r="AT53" s="56">
         <v>-0.26843426616126598</v>
       </c>
       <c r="AU53" s="139">
+        <f t="shared" si="17"/>
+        <v>0.91837782308539129</v>
+      </c>
+      <c r="AV53" s="143">
         <f t="shared" si="18"/>
-        <v>0.91837782308539129</v>
-      </c>
-      <c r="AV53" s="143">
-        <f t="shared" si="19"/>
         <v>1.0026865651762977</v>
       </c>
       <c r="AW53" s="139">
@@ -11940,7 +11932,7 @@
         <v>1.4841666666666669</v>
       </c>
       <c r="AX53" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3.3148046808054916</v>
       </c>
       <c r="AY53" s="67"/>
@@ -12086,29 +12078,29 @@
         <v>0.80547900743616063</v>
       </c>
       <c r="AP54" s="144">
-        <f t="shared" si="15"/>
+        <f>AX54/AX53</f>
         <v>1.0720871751885959</v>
       </c>
       <c r="AQ54" s="53">
         <v>121.28803000000001</v>
       </c>
       <c r="AR54" s="87">
+        <f t="shared" si="15"/>
+        <v>19103.926140488369</v>
+      </c>
+      <c r="AS54" s="87">
         <f t="shared" si="16"/>
-        <v>19103.926140488369</v>
-      </c>
-      <c r="AS54" s="87">
-        <f t="shared" si="17"/>
         <v>132.51155693696498</v>
       </c>
       <c r="AT54" s="56">
         <v>-0.28027597643614199</v>
       </c>
       <c r="AU54" s="139">
+        <f t="shared" si="17"/>
+        <v>0.92322968237408254</v>
+      </c>
+      <c r="AV54" s="143">
         <f t="shared" si="18"/>
-        <v>0.92322968237408254</v>
-      </c>
-      <c r="AV54" s="143">
-        <f t="shared" si="19"/>
         <v>1.0064720581833611</v>
       </c>
       <c r="AW54" s="139">
@@ -12116,7 +12108,7 @@
         <v>1.4518333333333318</v>
       </c>
       <c r="AX54" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3.5537595865466947</v>
       </c>
       <c r="AY54" s="67"/>
@@ -12262,29 +12254,29 @@
         <v>0.84665179090105236</v>
       </c>
       <c r="AP55" s="144">
-        <f t="shared" si="15"/>
+        <f>AX55/AX54</f>
         <v>1.0658717748240853</v>
       </c>
       <c r="AQ55" s="53">
         <v>123.3254</v>
       </c>
       <c r="AR55" s="87">
+        <f t="shared" si="15"/>
+        <v>21217.619788609918</v>
+      </c>
+      <c r="AS55" s="87">
         <f t="shared" si="16"/>
-        <v>21217.619788609918</v>
-      </c>
-      <c r="AS55" s="87">
-        <f t="shared" si="17"/>
         <v>147.35993185824853</v>
       </c>
       <c r="AT55" s="56">
         <v>-0.227185683060804</v>
       </c>
       <c r="AU55" s="139">
+        <f t="shared" si="17"/>
+        <v>0.92925693280325905</v>
+      </c>
+      <c r="AV55" s="143">
         <f t="shared" si="18"/>
-        <v>0.92925693280325905</v>
-      </c>
-      <c r="AV55" s="143">
-        <f t="shared" si="19"/>
         <v>1.013421905084517</v>
       </c>
       <c r="AW55" s="139">
@@ -12292,7 +12284,7 @@
         <v>1.4690000000000001</v>
       </c>
       <c r="AX55" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3.7878520378106333</v>
       </c>
       <c r="AY55" s="67"/>
@@ -12438,29 +12430,29 @@
         <v>0.83936963451578095</v>
       </c>
       <c r="AP56" s="144">
-        <f t="shared" si="15"/>
+        <f>AX56/AX55</f>
         <v>1.0608839171098441</v>
       </c>
       <c r="AQ56" s="53">
         <v>125.59278999999999</v>
       </c>
       <c r="AR56" s="87">
+        <f t="shared" si="15"/>
+        <v>24690.085754612228</v>
+      </c>
+      <c r="AS56" s="87">
         <f t="shared" si="16"/>
-        <v>24690.085754612228</v>
-      </c>
-      <c r="AS56" s="87">
-        <f t="shared" si="17"/>
         <v>171.68187684432027</v>
       </c>
       <c r="AT56" s="56">
         <v>-0.125919651170462</v>
       </c>
       <c r="AU56" s="139">
+        <f t="shared" si="17"/>
+        <v>0.9352299523626203</v>
+      </c>
+      <c r="AV56" s="143">
         <f t="shared" si="18"/>
-        <v>0.9352299523626203</v>
-      </c>
-      <c r="AV56" s="143">
-        <f t="shared" si="19"/>
         <v>1.002399777562154</v>
       </c>
       <c r="AW56" s="139">
@@ -12468,7 +12460,7 @@
         <v>1.7153333333333316</v>
       </c>
       <c r="AX56" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4.0184713073050498</v>
       </c>
       <c r="AY56" s="67"/>
@@ -12614,29 +12606,29 @@
         <v>0.95806926711081675</v>
       </c>
       <c r="AP57" s="144">
-        <f t="shared" si="15"/>
+        <f>AX57/AX56</f>
         <v>1.059291270527229</v>
       </c>
       <c r="AQ57" s="53">
         <v>125.62795</v>
       </c>
       <c r="AR57" s="87">
+        <f t="shared" si="15"/>
+        <v>25234.032837823921</v>
+      </c>
+      <c r="AS57" s="87">
         <f t="shared" si="16"/>
-        <v>25234.032837823921</v>
-      </c>
-      <c r="AS57" s="87">
-        <f t="shared" si="17"/>
         <v>175.66941305178682</v>
       </c>
       <c r="AT57" s="56">
         <v>-0.15305360361795101</v>
       </c>
       <c r="AU57" s="139">
+        <f t="shared" si="17"/>
+        <v>0.94107587458160669</v>
+      </c>
+      <c r="AV57" s="143">
         <f t="shared" si="18"/>
-        <v>0.94107587458160669</v>
-      </c>
-      <c r="AV57" s="143">
-        <f t="shared" si="19"/>
         <v>1.0060451181472363</v>
       </c>
       <c r="AW57" s="139">
@@ -12644,7 +12636,7 @@
         <v>2.0129999999999999</v>
       </c>
       <c r="AX57" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4.2567315766923812</v>
       </c>
       <c r="AY57" s="67"/>
@@ -12790,29 +12782,29 @@
         <v>0.93598608576480702</v>
       </c>
       <c r="AP58" s="144">
-        <f t="shared" si="15"/>
+        <f>AX58/AX57</f>
         <v>1.028883812010444</v>
       </c>
       <c r="AQ58" s="53">
         <v>132.50720999999999</v>
       </c>
       <c r="AR58" s="87">
+        <f t="shared" si="15"/>
+        <v>26031.650145397874</v>
+      </c>
+      <c r="AS58" s="87">
         <f t="shared" si="16"/>
-        <v>26031.650145397874</v>
-      </c>
-      <c r="AS58" s="87">
-        <f t="shared" si="17"/>
         <v>181.43810129638734</v>
       </c>
       <c r="AT58" s="56">
         <v>-0.16911693544595499</v>
       </c>
       <c r="AU58" s="139">
+        <f t="shared" si="17"/>
+        <v>0.94719288147979064</v>
+      </c>
+      <c r="AV58" s="143">
         <f t="shared" si="18"/>
-        <v>0.94719288147979064</v>
-      </c>
-      <c r="AV58" s="143">
-        <f t="shared" si="19"/>
         <v>1.0038665287383388</v>
       </c>
       <c r="AW58" s="139">
@@ -12820,7 +12812,7 @@
         <v>2.2945000000000002</v>
       </c>
       <c r="AX58" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4.3796822113324847</v>
       </c>
       <c r="AY58" s="67"/>
@@ -12966,29 +12958,29 @@
         <v>1</v>
       </c>
       <c r="AP59" s="144">
-        <f t="shared" si="15"/>
+        <f>AX59/AX58</f>
         <v>1.0651863600317208</v>
       </c>
       <c r="AQ59" s="53">
         <v>134.12567999999999</v>
       </c>
       <c r="AR59" s="87">
+        <f t="shared" si="15"/>
+        <v>31525.325963901836</v>
+      </c>
+      <c r="AS59" s="87">
         <f t="shared" si="16"/>
-        <v>31525.325963901836</v>
-      </c>
-      <c r="AS59" s="87">
-        <f t="shared" si="17"/>
         <v>220.00297263618296</v>
       </c>
       <c r="AT59" s="56">
         <v>-2.3278817456589E-2</v>
       </c>
       <c r="AU59" s="139">
+        <f t="shared" si="17"/>
+        <v>0.95278269063758902</v>
+      </c>
+      <c r="AV59" s="143">
         <f t="shared" si="18"/>
-        <v>0.95278269063758902</v>
-      </c>
-      <c r="AV59" s="143">
-        <f t="shared" si="19"/>
         <v>1.0128642239733365</v>
       </c>
       <c r="AW59" s="139">
@@ -12996,7 +12988,7 @@
         <v>2.5503333333333318</v>
       </c>
       <c r="AX59" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4.6651777527849276</v>
       </c>
       <c r="AY59" s="67"/>
@@ -13142,29 +13134,29 @@
         <v>1.0632393615013356</v>
       </c>
       <c r="AP60" s="144">
-        <f t="shared" si="15"/>
+        <f>AX60/AX59</f>
         <v>1.0375223347230491</v>
       </c>
       <c r="AQ60" s="53">
         <v>139.65289999999999</v>
       </c>
       <c r="AR60" s="87">
+        <f t="shared" si="15"/>
+        <v>38004.98685469442</v>
+      </c>
+      <c r="AS60" s="87">
         <f t="shared" si="16"/>
-        <v>38004.98685469442</v>
-      </c>
-      <c r="AS60" s="87">
-        <f t="shared" si="17"/>
         <v>265.56114689679708</v>
       </c>
       <c r="AT60" s="56">
         <v>0.119558697536366</v>
       </c>
       <c r="AU60" s="139">
+        <f t="shared" si="17"/>
+        <v>0.96028398973843421</v>
+      </c>
+      <c r="AV60" s="143">
         <f t="shared" si="18"/>
-        <v>0.96028398973843421</v>
-      </c>
-      <c r="AV60" s="143">
-        <f t="shared" si="19"/>
         <v>1.0082937803869305</v>
       </c>
       <c r="AW60" s="139">
@@ -13172,7 +13164,7 @@
         <v>2.839</v>
       </c>
       <c r="AX60" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4.8402261139674456</v>
       </c>
       <c r="AY60" s="67"/>
@@ -13318,29 +13310,29 @@
         <v>1.1986562203270588</v>
       </c>
       <c r="AP61" s="144">
-        <f t="shared" si="15"/>
+        <f>AX61/AX60</f>
         <v>1.0213834672789868</v>
       </c>
       <c r="AQ61" s="53">
         <v>143.66876999999999</v>
       </c>
       <c r="AR61" s="87">
+        <f t="shared" si="15"/>
+        <v>38939.114536289271</v>
+      </c>
+      <c r="AS61" s="87">
         <f t="shared" si="16"/>
-        <v>38939.114536289271</v>
-      </c>
-      <c r="AS61" s="87">
-        <f t="shared" si="17"/>
         <v>272.4348599754374</v>
       </c>
       <c r="AT61" s="56">
         <v>0.101434297397066</v>
       </c>
       <c r="AU61" s="139">
+        <f t="shared" si="17"/>
+        <v>0.96582950234951281</v>
+      </c>
+      <c r="AV61" s="143">
         <f t="shared" si="18"/>
-        <v>0.96582950234951281</v>
-      </c>
-      <c r="AV61" s="143">
-        <f t="shared" si="19"/>
         <v>1.005689614671996</v>
       </c>
       <c r="AW61" s="139">
@@ -13348,7 +13340,7 @@
         <v>3.2105000000000001</v>
       </c>
       <c r="AX61" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>4.9437269306983653</v>
       </c>
       <c r="AY61" s="67"/>
@@ -13494,29 +13486,29 @@
         <v>1.17024293195231</v>
       </c>
       <c r="AP62" s="144">
-        <f t="shared" si="15"/>
+        <f>AX62/AX61</f>
         <v>1.0167205283124927</v>
       </c>
       <c r="AQ62" s="53">
         <v>147.4426</v>
       </c>
       <c r="AR62" s="87">
+        <f t="shared" si="15"/>
+        <v>41339.13769113821</v>
+      </c>
+      <c r="AS62" s="87">
         <f t="shared" si="16"/>
-        <v>41339.13769113821</v>
-      </c>
-      <c r="AS62" s="87">
-        <f t="shared" si="17"/>
         <v>289.58304279486538</v>
       </c>
       <c r="AT62" s="56">
         <v>0.120221418274924</v>
       </c>
       <c r="AU62" s="139">
+        <f t="shared" si="17"/>
+        <v>0.97625875507808901</v>
+      </c>
+      <c r="AV62" s="143">
         <f t="shared" si="18"/>
-        <v>0.97625875507808901</v>
-      </c>
-      <c r="AV62" s="143">
-        <f t="shared" si="19"/>
         <v>1.0033172693475969</v>
       </c>
       <c r="AW62" s="139">
@@ -13524,7 +13516,7 @@
         <v>3.594166666666669</v>
       </c>
       <c r="AX62" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.0263886568123404</v>
       </c>
       <c r="AY62" s="67"/>
@@ -13670,29 +13662,29 @@
         <v>1.3218791736265796</v>
       </c>
       <c r="AP63" s="144">
-        <f t="shared" si="15"/>
+        <f>AX63/AX62</f>
         <v>1.0456053067993369</v>
       </c>
       <c r="AQ63" s="53">
         <v>154.85795999999999</v>
       </c>
       <c r="AR63" s="87">
+        <f t="shared" si="15"/>
+        <v>44516.677349353522</v>
+      </c>
+      <c r="AS63" s="87">
         <f t="shared" si="16"/>
-        <v>44516.677349353522</v>
-      </c>
-      <c r="AS63" s="87">
-        <f t="shared" si="17"/>
         <v>312.20055648610366</v>
       </c>
       <c r="AT63" s="56">
         <v>0.15482338648948299</v>
       </c>
       <c r="AU63" s="139">
+        <f t="shared" si="17"/>
+        <v>0.98234214061661596</v>
+      </c>
+      <c r="AV63" s="143">
         <f t="shared" si="18"/>
-        <v>0.98234214061661596</v>
-      </c>
-      <c r="AV63" s="143">
-        <f t="shared" si="19"/>
         <v>1.0153835679010241</v>
       </c>
       <c r="AW63" s="139">
@@ -13700,7 +13692,7 @@
         <v>3.9631666666666687</v>
       </c>
       <c r="AX63" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.2556186535989742</v>
       </c>
       <c r="AY63" s="67"/>
@@ -13846,29 +13838,29 @@
         <v>1.4295673029964049</v>
       </c>
       <c r="AP64" s="144">
-        <f t="shared" si="15"/>
+        <f>AX64/AX63</f>
         <v>1.0483743061062647</v>
       </c>
       <c r="AQ64" s="53">
         <v>162.01571999999999</v>
       </c>
       <c r="AR64" s="87">
+        <f t="shared" si="15"/>
+        <v>45063.453948340488</v>
+      </c>
+      <c r="AS64" s="87">
         <f t="shared" si="16"/>
-        <v>45063.453948340488</v>
-      </c>
-      <c r="AS64" s="87">
-        <f t="shared" si="17"/>
         <v>316.36130907338713</v>
       </c>
       <c r="AT64" s="56">
         <v>0.128850039224919</v>
       </c>
       <c r="AU64" s="139">
+        <f t="shared" si="17"/>
+        <v>0.98553710602279199</v>
+      </c>
+      <c r="AV64" s="143">
         <f t="shared" si="18"/>
-        <v>0.98553710602279199</v>
-      </c>
-      <c r="AV64" s="143">
-        <f t="shared" si="19"/>
         <v>1.0034422303409185</v>
       </c>
       <c r="AW64" s="139">
@@ -13876,7 +13868,7 @@
         <v>4.3031666666666686</v>
       </c>
       <c r="AX64" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.5098555591259659</v>
       </c>
       <c r="AY64" s="67"/>
@@ -14022,29 +14014,29 @@
         <v>1.6381635092977698</v>
       </c>
       <c r="AP65" s="144">
-        <f t="shared" si="15"/>
+        <f>AX65/AX64</f>
         <v>0.97541603630862328</v>
       </c>
       <c r="AQ65" s="53">
         <v>167.01775000000001</v>
       </c>
       <c r="AR65" s="87">
+        <f t="shared" si="15"/>
+        <v>40162.98557722949</v>
+      </c>
+      <c r="AS65" s="87">
         <f t="shared" si="16"/>
-        <v>40162.98557722949</v>
-      </c>
-      <c r="AS65" s="87">
-        <f t="shared" si="17"/>
         <v>282.20594427429762</v>
       </c>
       <c r="AT65" s="56">
         <v>-2.2917348359530101E-2</v>
       </c>
       <c r="AU65" s="139">
+        <f t="shared" si="17"/>
+        <v>0.99455445119728492</v>
+      </c>
+      <c r="AV65" s="143">
         <f t="shared" si="18"/>
-        <v>0.99455445119728492</v>
-      </c>
-      <c r="AV65" s="143">
-        <f t="shared" si="19"/>
         <v>0.99651622513782723</v>
       </c>
       <c r="AW65" s="139">
@@ -14052,7 +14044,7 @@
         <v>4.4696666666666687</v>
       </c>
       <c r="AX65" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.374401470115683</v>
       </c>
       <c r="AY65" s="67"/>
@@ -14198,29 +14190,29 @@
         <v>1.6582024945271183</v>
       </c>
       <c r="AP66" s="144">
-        <f t="shared" si="15"/>
+        <f>AX66/AX65</f>
         <v>1.015897634742148</v>
       </c>
       <c r="AQ66" s="53">
         <v>173.50883999999999</v>
       </c>
       <c r="AR66" s="87">
+        <f t="shared" si="15"/>
+        <v>38503.006125302323</v>
+      </c>
+      <c r="AS66" s="87">
         <f t="shared" si="16"/>
-        <v>38503.006125302323</v>
-      </c>
-      <c r="AS66" s="87">
-        <f t="shared" si="17"/>
         <v>270.7284919512187</v>
       </c>
       <c r="AT66" s="56">
         <v>-0.10044387228318399</v>
       </c>
       <c r="AU66" s="139">
+        <f t="shared" si="17"/>
+        <v>0.99996085237798804</v>
+      </c>
+      <c r="AV66" s="143">
         <f t="shared" si="18"/>
-        <v>0.99996085237798804</v>
-      </c>
-      <c r="AV66" s="143">
-        <f t="shared" si="19"/>
         <v>1.0063365827490114</v>
       </c>
       <c r="AW66" s="139">
@@ -14228,7 +14220,7 @@
         <v>4.5786666666666687</v>
       </c>
       <c r="AX66" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.4598417416452456</v>
       </c>
       <c r="AY66" s="67"/>
@@ -14374,29 +14366,29 @@
         <v>1.8755806665546313</v>
       </c>
       <c r="AP67" s="144">
-        <f t="shared" si="15"/>
+        <f>AX67/AX66</f>
         <v>1.0885496183206107</v>
       </c>
       <c r="AQ67" s="53">
         <v>179.34575000000001</v>
       </c>
       <c r="AR67" s="87">
+        <f t="shared" si="15"/>
+        <v>43848.599299787806</v>
+      </c>
+      <c r="AS67" s="87">
         <f t="shared" si="16"/>
-        <v>43848.599299787806</v>
-      </c>
-      <c r="AS67" s="87">
-        <f t="shared" si="17"/>
         <v>308.46493728350697</v>
       </c>
       <c r="AT67" s="56">
         <v>-4.2619349522840999E-3</v>
       </c>
       <c r="AU67" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0068888073724953</v>
+      </c>
+      <c r="AV67" s="143">
         <f t="shared" si="18"/>
-        <v>1.0068888073724953</v>
-      </c>
-      <c r="AV67" s="143">
-        <f t="shared" si="19"/>
         <v>1.0167096592770519</v>
       </c>
       <c r="AW67" s="139">
@@ -14404,7 +14396,7 @@
         <v>4.6875</v>
       </c>
       <c r="AX67" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>5.9433086439588703</v>
       </c>
       <c r="AY67" s="67"/>
@@ -14550,29 +14542,29 @@
         <v>1.9463488310551627</v>
       </c>
       <c r="AP68" s="144">
-        <f t="shared" si="15"/>
+        <f>AX68/AX67</f>
         <v>1.0536465638148667</v>
       </c>
       <c r="AQ68" s="53">
         <v>183.79357999999999</v>
       </c>
       <c r="AR68" s="87">
+        <f t="shared" si="15"/>
+        <v>47470.838444435118</v>
+      </c>
+      <c r="AS68" s="87">
         <f t="shared" si="16"/>
-        <v>47470.838444435118</v>
-      </c>
-      <c r="AS68" s="87">
-        <f t="shared" si="17"/>
         <v>334.06877208449828</v>
       </c>
       <c r="AT68" s="56">
         <v>4.25865305321462E-2</v>
       </c>
       <c r="AU68" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0126571853304143</v>
+      </c>
+      <c r="AV68" s="143">
         <f t="shared" si="18"/>
-        <v>1.0126571853304143</v>
-      </c>
-      <c r="AV68" s="143">
-        <f t="shared" si="19"/>
         <v>1.0018634787665035</v>
       </c>
       <c r="AW68" s="139">
@@ -14580,7 +14572,7 @@
         <v>4.6488333333333314</v>
       </c>
       <c r="AX68" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6.2621467303984586</v>
       </c>
       <c r="AY68" s="67"/>
@@ -14726,29 +14718,29 @@
         <v>2.1135654680843965</v>
       </c>
       <c r="AP69" s="144">
-        <f t="shared" si="15"/>
+        <f>AX69/AX68</f>
         <v>1.0352745424292848</v>
       </c>
       <c r="AQ69" s="53">
         <v>192.99194</v>
       </c>
       <c r="AR69" s="87">
+        <f t="shared" si="15"/>
+        <v>57010.953544390155</v>
+      </c>
+      <c r="AS69" s="87">
         <f t="shared" si="16"/>
-        <v>57010.953544390155</v>
-      </c>
-      <c r="AS69" s="87">
-        <f t="shared" si="17"/>
         <v>401.35274623462766</v>
       </c>
       <c r="AT69" s="56">
         <v>0.194889709128618</v>
       </c>
       <c r="AU69" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0170198612629611</v>
+      </c>
+      <c r="AV69" s="143">
         <f t="shared" si="18"/>
-        <v>1.0170198612629611</v>
-      </c>
-      <c r="AV69" s="143">
-        <f t="shared" si="19"/>
         <v>1.0095452734881483</v>
       </c>
       <c r="AW69" s="139">
@@ -14756,7 +14748,7 @@
         <v>4.291166666666669</v>
       </c>
       <c r="AX69" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6.4830410909383067</v>
       </c>
       <c r="AY69" s="67"/>
@@ -14902,29 +14894,29 @@
         <v>2.0352634834512981</v>
       </c>
       <c r="AP70" s="144">
-        <f t="shared" si="15"/>
+        <f>AX70/AX69</f>
         <v>1.0585020893603341</v>
       </c>
       <c r="AQ70" s="53">
         <v>208.71977999999999</v>
       </c>
       <c r="AR70" s="87">
+        <f t="shared" si="15"/>
+        <v>60658.925793417606</v>
+      </c>
+      <c r="AS70" s="87">
         <f t="shared" si="16"/>
-        <v>60658.925793417606</v>
-      </c>
-      <c r="AS70" s="87">
-        <f t="shared" si="17"/>
         <v>427.23570779981412</v>
       </c>
       <c r="AT70" s="56">
         <v>0.227453809415158</v>
       </c>
       <c r="AU70" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0168522478881732</v>
+      </c>
+      <c r="AV70" s="143">
         <f t="shared" si="18"/>
-        <v>1.0168522478881732</v>
-      </c>
-      <c r="AV70" s="143">
-        <f t="shared" si="19"/>
         <v>1.0090532190099375</v>
       </c>
       <c r="AW70" s="139">
@@ -14932,7 +14924,7 @@
         <v>3.5426666666666686</v>
       </c>
       <c r="AX70" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6.862312540167097</v>
       </c>
       <c r="AY70" s="67"/>
@@ -15078,29 +15070,29 @@
         <v>2.0913013993473974</v>
       </c>
       <c r="AP71" s="144">
-        <f t="shared" si="15"/>
+        <f>AX71/AX70</f>
         <v>1.0950501062860614</v>
       </c>
       <c r="AQ71" s="53">
         <v>212.82203000000001</v>
       </c>
       <c r="AR71" s="87">
+        <f t="shared" si="15"/>
+        <v>67880.950917302893</v>
+      </c>
+      <c r="AS71" s="87">
         <f t="shared" si="16"/>
-        <v>67880.950917302893</v>
-      </c>
-      <c r="AS71" s="87">
-        <f t="shared" si="17"/>
         <v>478.40208975412742</v>
       </c>
       <c r="AT71" s="56">
         <v>0.31242004813212298</v>
       </c>
       <c r="AU71" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0180635171942618</v>
+      </c>
+      <c r="AV71" s="143">
         <f t="shared" si="18"/>
-        <v>1.0180635171942618</v>
-      </c>
-      <c r="AV71" s="143">
-        <f t="shared" si="19"/>
         <v>1.0194278110894901</v>
       </c>
       <c r="AW71" s="139">
@@ -15108,7 +15100,7 @@
         <v>2.9926666666666684</v>
       </c>
       <c r="AX71" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>7.5145760764781517</v>
       </c>
       <c r="AY71" s="67"/>
@@ -15254,29 +15246,29 @@
         <v>2.0791595416674804</v>
       </c>
       <c r="AP72" s="144">
-        <f t="shared" si="15"/>
+        <f>AX72/AX71</f>
         <v>1.0851358846367165</v>
       </c>
       <c r="AQ72" s="53">
         <v>217.74556999999999</v>
       </c>
       <c r="AR72" s="87">
+        <f t="shared" si="15"/>
+        <v>73442.005035232694</v>
+      </c>
+      <c r="AS72" s="87">
         <f t="shared" si="16"/>
-        <v>73442.005035232694</v>
-      </c>
-      <c r="AS72" s="87">
-        <f t="shared" si="17"/>
         <v>517.8646074534978</v>
       </c>
       <c r="AT72" s="56">
         <v>0.36504465729213098</v>
       </c>
       <c r="AU72" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0128612293058674</v>
+      </c>
+      <c r="AV72" s="143">
         <f t="shared" si="18"/>
-        <v>1.0128612293058674</v>
-      </c>
-      <c r="AV72" s="143">
-        <f t="shared" si="19"/>
         <v>1.0076500866390319</v>
       </c>
       <c r="AW72" s="139">
@@ -15284,7 +15276,7 @@
         <v>3.0289999999999999</v>
       </c>
       <c r="AX72" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>8.1543361584190261</v>
       </c>
       <c r="AY72" s="67"/>
@@ -15430,29 +15422,29 @@
         <v>1.8765724554440133</v>
       </c>
       <c r="AP73" s="144">
-        <f t="shared" si="15"/>
+        <f>AX73/AX72</f>
         <v>0.83209813442371605</v>
       </c>
       <c r="AQ73" s="53">
         <v>212.88292999999999</v>
       </c>
       <c r="AR73" s="87">
+        <f t="shared" si="15"/>
+        <v>53147.775754754148</v>
+      </c>
+      <c r="AS73" s="87">
         <f t="shared" si="16"/>
-        <v>53147.775754754148</v>
-      </c>
-      <c r="AS73" s="87">
-        <f t="shared" si="17"/>
         <v>374.79479394065191</v>
       </c>
       <c r="AT73" s="56">
         <v>1.6849264828593301E-2</v>
       </c>
       <c r="AU73" s="139">
+        <f t="shared" si="17"/>
+        <v>0.99307892518942864</v>
+      </c>
+      <c r="AV73" s="143">
         <f t="shared" si="18"/>
-        <v>0.99307892518942864</v>
-      </c>
-      <c r="AV73" s="143">
-        <f t="shared" si="19"/>
         <v>0.98319559329395068</v>
       </c>
       <c r="AW73" s="139">
@@ -15460,7 +15452,7 @@
         <v>1.4891666666666667</v>
       </c>
       <c r="AX73" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6.7852079048843228</v>
       </c>
       <c r="AY73" s="67"/>
@@ -15606,29 +15598,29 @@
         <v>1.59845336391282</v>
       </c>
       <c r="AP74" s="144">
-        <f t="shared" si="15"/>
+        <f>AX74/AX73</f>
         <v>0.92721130221130199</v>
       </c>
       <c r="AQ74" s="53">
         <v>208.43114</v>
       </c>
       <c r="AR74" s="87">
+        <f t="shared" si="15"/>
+        <v>30609.163085703272</v>
+      </c>
+      <c r="AS74" s="87">
         <f t="shared" si="16"/>
-        <v>30609.163085703272</v>
-      </c>
-      <c r="AS74" s="87">
-        <f t="shared" si="17"/>
         <v>215.70939454336343</v>
       </c>
       <c r="AT74" s="56">
         <v>-0.55923028157669896</v>
       </c>
       <c r="AU74" s="139">
+        <f t="shared" si="17"/>
+        <v>0.97548860813471061</v>
+      </c>
+      <c r="AV74" s="143">
         <f t="shared" si="18"/>
-        <v>0.97548860813471061</v>
-      </c>
-      <c r="AV74" s="143">
-        <f t="shared" si="19"/>
         <v>0.99413868200470268</v>
       </c>
       <c r="AW74" s="139">
@@ -15636,7 +15628,7 @@
         <v>0.60033333333333316</v>
       </c>
       <c r="AX74" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6.2913214572622129</v>
       </c>
       <c r="AY74" s="67"/>
@@ -15782,29 +15774,29 @@
         <v>1.6971879308292601</v>
       </c>
       <c r="AP75" s="144">
-        <f t="shared" si="15"/>
+        <f>AX75/AX74</f>
         <v>1.0728718118582312</v>
       </c>
       <c r="AQ75" s="53">
         <v>205.66485</v>
       </c>
       <c r="AR75" s="87">
+        <f t="shared" si="15"/>
+        <v>36170.551887165639</v>
+      </c>
+      <c r="AS75" s="87">
         <f t="shared" si="16"/>
-        <v>36170.551887165639</v>
-      </c>
-      <c r="AS75" s="87">
-        <f t="shared" si="17"/>
         <v>254.49100385681768</v>
       </c>
       <c r="AT75" s="56">
         <v>-0.415714390632207</v>
       </c>
       <c r="AU75" s="139">
+        <f t="shared" si="17"/>
+        <v>0.9738299585577459</v>
+      </c>
+      <c r="AV75" s="143">
         <f t="shared" si="18"/>
-        <v>0.9738299585577459</v>
-      </c>
-      <c r="AV75" s="143">
-        <f t="shared" si="19"/>
         <v>1.0096575380565533</v>
       </c>
       <c r="AW75" s="139">
@@ -15812,7 +15804,7 @@
         <v>0.45450000000000002</v>
       </c>
       <c r="AX75" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6.7497814508354779</v>
       </c>
       <c r="AY75" s="67"/>
@@ -15958,29 +15950,29 @@
         <v>1.7329722293444838</v>
       </c>
       <c r="AP76" s="144">
-        <f t="shared" si="15"/>
+        <f>AX76/AX75</f>
         <v>1.0484717505402903</v>
       </c>
       <c r="AQ76" s="53">
         <v>208.52665999999999</v>
       </c>
       <c r="AR76" s="87">
+        <f t="shared" si="15"/>
+        <v>44215.324929590861</v>
+      </c>
+      <c r="AS76" s="87">
         <f t="shared" si="16"/>
-        <v>44215.324929590861</v>
-      </c>
-      <c r="AS76" s="87">
-        <f t="shared" si="17"/>
         <v>310.42675856600857</v>
       </c>
       <c r="AT76" s="56">
         <v>-0.237485860170979</v>
       </c>
       <c r="AU76" s="139">
+        <f t="shared" si="17"/>
+        <v>0.97698513306146129</v>
+      </c>
+      <c r="AV76" s="143">
         <f t="shared" si="18"/>
-        <v>0.97698513306146129</v>
-      </c>
-      <c r="AV76" s="143">
-        <f t="shared" si="19"/>
         <v>1.0025160625690821</v>
       </c>
       <c r="AW76" s="139">
@@ -15988,7 +15980,7 @@
         <v>0.28866666666666685</v>
       </c>
       <c r="AX76" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>7.0769551735218537</v>
       </c>
       <c r="AY76" s="67"/>
@@ -16134,29 +16126,29 @@
         <v>2.00889166947645</v>
       </c>
       <c r="AP77" s="144">
-        <f t="shared" si="15"/>
+        <f>AX77/AX76</f>
         <v>1.0020612485276796</v>
       </c>
       <c r="AQ77" s="53">
         <v>211.95384000000001</v>
       </c>
       <c r="AR77" s="87">
+        <f t="shared" si="15"/>
+        <v>50256.22806209213</v>
+      </c>
+      <c r="AS77" s="87">
         <f t="shared" si="16"/>
-        <v>50256.22806209213</v>
-      </c>
-      <c r="AS77" s="87">
-        <f t="shared" si="17"/>
         <v>352.08723719046174</v>
       </c>
       <c r="AT77" s="56">
         <v>-0.13024863302666301</v>
       </c>
       <c r="AU77" s="139">
+        <f t="shared" si="17"/>
+        <v>0.98445454626658302</v>
+      </c>
+      <c r="AV77" s="143">
         <f t="shared" si="18"/>
-        <v>0.98445454626658302</v>
-      </c>
-      <c r="AV77" s="143">
-        <f t="shared" si="19"/>
         <v>1.0035630315057622</v>
       </c>
       <c r="AW77" s="139">
@@ -16164,7 +16156,7 @@
         <v>0.25950000000000001</v>
       </c>
       <c r="AX77" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>7.0915425369537299</v>
       </c>
       <c r="AY77" s="67"/>
@@ -16310,29 +16302,29 @@
         <v>1.9983041809485385</v>
       </c>
       <c r="AP78" s="144">
-        <f t="shared" si="15"/>
+        <f>AX78/AX77</f>
         <v>1.0102850426094623</v>
       </c>
       <c r="AQ78" s="53">
         <v>216.21244999999999</v>
       </c>
       <c r="AR78" s="87">
+        <f t="shared" si="15"/>
+        <v>52894.850736220047</v>
+      </c>
+      <c r="AS78" s="87">
         <f t="shared" si="16"/>
-        <v>52894.850736220047</v>
-      </c>
-      <c r="AS78" s="87">
-        <f t="shared" si="17"/>
         <v>369.99238074607274</v>
       </c>
       <c r="AT78" s="56">
         <v>-9.7998281932166004E-2</v>
       </c>
       <c r="AU78" s="139">
+        <f t="shared" si="17"/>
+        <v>0.98875454823957409</v>
+      </c>
+      <c r="AV78" s="143">
         <f t="shared" si="18"/>
-        <v>0.98875454823957409</v>
-      </c>
-      <c r="AV78" s="143">
-        <f t="shared" si="19"/>
         <v>1.0021782104129269</v>
       </c>
       <c r="AW78" s="139">
@@ -16340,7 +16332,7 @@
         <v>0.23533333333333317</v>
       </c>
       <c r="AX78" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>7.1644793541131131</v>
       </c>
     </row>
@@ -16483,29 +16475,29 @@
         <v>2.1269785363900762</v>
       </c>
       <c r="AP79" s="144">
-        <f t="shared" si="15"/>
+        <f>AX79/AX78</f>
         <v>1.0587550901687028</v>
       </c>
       <c r="AQ79" s="53">
         <v>217.53665000000001</v>
       </c>
       <c r="AR79" s="87">
+        <f t="shared" si="15"/>
+        <v>55030.609824456325</v>
+      </c>
+      <c r="AS79" s="87">
         <f t="shared" si="16"/>
-        <v>55030.609824456325</v>
-      </c>
-      <c r="AS79" s="87">
-        <f t="shared" si="17"/>
         <v>384.69224139961506</v>
       </c>
       <c r="AT79" s="56">
         <v>-7.4725579167898404E-2</v>
       </c>
       <c r="AU79" s="139">
+        <f t="shared" si="17"/>
+        <v>0.99820959837921186</v>
+      </c>
+      <c r="AV79" s="143">
         <f t="shared" si="18"/>
-        <v>0.99820959837921186</v>
-      </c>
-      <c r="AV79" s="143">
-        <f t="shared" si="19"/>
         <v>1.008611911430163</v>
       </c>
       <c r="AW79" s="139">
@@ -16513,7 +16505,7 @@
         <v>0.27283333333333315</v>
       </c>
       <c r="AX79" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>7.5854289845758389</v>
       </c>
       <c r="AY79" s="67"/>
@@ -16659,29 +16651,29 @@
         <v>2.1949049149738888</v>
       </c>
       <c r="AP80" s="144">
-        <f t="shared" si="15"/>
+        <f>AX80/AX79</f>
         <v>1.0112637362637362</v>
       </c>
       <c r="AQ80" s="53">
         <v>220.57884000000001</v>
       </c>
       <c r="AR80" s="87">
+        <f t="shared" si="15"/>
+        <v>52227.235998925709</v>
+      </c>
+      <c r="AS80" s="87">
         <f t="shared" si="16"/>
-        <v>52227.235998925709</v>
-      </c>
-      <c r="AS80" s="87">
-        <f t="shared" si="17"/>
         <v>365.13095212375612</v>
       </c>
       <c r="AT80" s="56">
         <v>-0.14100840476611201</v>
       </c>
       <c r="AU80" s="139">
+        <f t="shared" si="17"/>
+        <v>1.003884939594355</v>
+      </c>
+      <c r="AV80" s="143">
         <f t="shared" si="18"/>
-        <v>1.003884939594355</v>
-      </c>
-      <c r="AV80" s="143">
-        <f t="shared" si="19"/>
         <v>0.99978811113258392</v>
       </c>
       <c r="AW80" s="139">
@@ -16689,7 +16681,7 @@
         <v>0.32766666666666688</v>
       </c>
       <c r="AX80" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>7.6708692561054015</v>
       </c>
       <c r="AY80" s="67"/>
@@ -16835,29 +16827,29 @@
         <v>2.4315711686447714</v>
       </c>
       <c r="AP81" s="144">
-        <f t="shared" si="15"/>
+        <f>AX81/AX80</f>
         <v>1.0581363759847868</v>
       </c>
       <c r="AQ81" s="53">
         <v>220.56397000000001</v>
       </c>
       <c r="AR81" s="87">
+        <f t="shared" si="15"/>
+        <v>61313.844943408141</v>
+      </c>
+      <c r="AS81" s="87">
         <f t="shared" si="16"/>
-        <v>61313.844943408141</v>
-      </c>
-      <c r="AS81" s="87">
-        <f t="shared" si="17"/>
         <v>428.84911796918396</v>
       </c>
       <c r="AT81" s="56">
         <v>7.3072761390608997E-3</v>
       </c>
       <c r="AU81" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0097796862351027</v>
+      </c>
+      <c r="AV81" s="143">
         <f t="shared" si="18"/>
-        <v>1.0097796862351027</v>
-      </c>
-      <c r="AV81" s="143">
-        <f t="shared" si="19"/>
         <v>1.0054222581808736</v>
       </c>
       <c r="AW81" s="139">
@@ -16865,7 +16857,7 @@
         <v>0.41316666666666685</v>
       </c>
       <c r="AX81" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>8.1168257953084879</v>
       </c>
       <c r="AY81" s="67"/>
@@ -17011,29 +17003,29 @@
         <v>2.309968598772044</v>
       </c>
       <c r="AP82" s="144">
-        <f t="shared" si="15"/>
+        <f>AX82/AX81</f>
         <v>1.0708600770218228</v>
       </c>
       <c r="AQ82" s="53">
         <v>218.17526000000001</v>
       </c>
       <c r="AR82" s="87">
+        <f t="shared" si="15"/>
+        <v>65992.963397230647</v>
+      </c>
+      <c r="AS82" s="87">
         <f t="shared" si="16"/>
-        <v>65992.963397230647</v>
-      </c>
-      <c r="AS82" s="87">
-        <f t="shared" si="17"/>
         <v>461.7669605303235</v>
       </c>
       <c r="AT82" s="56">
         <v>7.0196141329181394E-2</v>
       </c>
       <c r="AU82" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0121612163348455</v>
+      </c>
+      <c r="AV82" s="143">
         <f t="shared" si="18"/>
-        <v>1.0121612163348455</v>
-      </c>
-      <c r="AV82" s="143">
-        <f t="shared" si="19"/>
         <v>1.0089420570365455</v>
       </c>
       <c r="AW82" s="139">
@@ -17041,7 +17033,7 @@
         <v>0.43716666666666693</v>
       </c>
       <c r="AX82" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>8.6919846963367657</v>
       </c>
       <c r="AY82" s="67"/>
@@ -17187,29 +17179,29 @@
         <v>2.3831975761363795</v>
       </c>
       <c r="AP83" s="144">
-        <f t="shared" si="15"/>
+        <f>AX83/AX82</f>
         <v>1.0395588587868616</v>
       </c>
       <c r="AQ83" s="53">
         <v>221.05392000000001</v>
       </c>
       <c r="AR83" s="87">
+        <f t="shared" si="15"/>
+        <v>73515.164127005424</v>
+      </c>
+      <c r="AS83" s="87">
         <f t="shared" si="16"/>
-        <v>73515.164127005424</v>
-      </c>
-      <c r="AS83" s="87">
-        <f t="shared" si="17"/>
         <v>514.44101332376113</v>
       </c>
       <c r="AT83" s="56">
         <v>0.16869097124739699</v>
       </c>
       <c r="AU83" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0161918336136402</v>
+      </c>
+      <c r="AV83" s="143">
         <f t="shared" si="18"/>
-        <v>1.0161918336136402</v>
-      </c>
-      <c r="AV83" s="143">
-        <f t="shared" si="19"/>
         <v>1.0167965050234582</v>
       </c>
       <c r="AW83" s="139">
@@ -17217,7 +17209,7 @@
         <v>0.56433333333333335</v>
       </c>
       <c r="AX83" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.0358296915167138</v>
       </c>
       <c r="AY83" s="67"/>
@@ -17363,29 +17355,29 @@
         <v>2.4666455705131498</v>
       </c>
       <c r="AP84" s="144">
-        <f t="shared" si="15"/>
+        <f>AX84/AX83</f>
         <v>0.99285055350553519</v>
       </c>
       <c r="AQ84" s="53">
         <v>228.07508999999999</v>
       </c>
       <c r="AR84" s="87">
+        <f t="shared" si="15"/>
+        <v>69495.827190598153</v>
+      </c>
+      <c r="AS84" s="87">
         <f t="shared" si="16"/>
-        <v>69495.827190598153</v>
-      </c>
-      <c r="AS84" s="87">
-        <f t="shared" si="17"/>
         <v>486.19560362253674</v>
       </c>
       <c r="AT84" s="56">
         <v>0.10445832930131101</v>
       </c>
       <c r="AU84" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0174039772604835</v>
+      </c>
+      <c r="AV84" s="143">
         <f t="shared" si="18"/>
-        <v>1.0174039772604835</v>
-      </c>
-      <c r="AV84" s="143">
-        <f t="shared" si="19"/>
         <v>1.0012759143604844</v>
       </c>
       <c r="AW84" s="139">
@@ -17393,7 +17385,7 @@
         <v>0.46433333333333338</v>
       </c>
       <c r="AX84" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>8.971228510604119</v>
       </c>
     </row>
@@ -17536,29 +17528,29 @@
         <v>2.7560235779385009</v>
       </c>
       <c r="AP85" s="144">
-        <f t="shared" si="15"/>
+        <f>AX85/AX84</f>
         <v>1.0301974448315909</v>
       </c>
       <c r="AQ85" s="53">
         <v>236.97504000000001</v>
       </c>
       <c r="AR85" s="87">
+        <f t="shared" si="15"/>
+        <v>81589.80771332061</v>
+      </c>
+      <c r="AS85" s="87">
         <f t="shared" si="16"/>
-        <v>81589.80771332061</v>
-      </c>
-      <c r="AS85" s="87">
-        <f t="shared" si="17"/>
         <v>570.52218890643678</v>
       </c>
       <c r="AT85" s="56">
         <v>0.25804181881147698</v>
       </c>
       <c r="AU85" s="139">
+        <f t="shared" si="17"/>
+        <v>1.022127841966612</v>
+      </c>
+      <c r="AV85" s="143">
         <f t="shared" si="18"/>
-        <v>1.022127841966612</v>
-      </c>
-      <c r="AV85" s="143">
-        <f t="shared" si="19"/>
         <v>1.0039860948683268</v>
       </c>
       <c r="AW85" s="139">
@@ -17566,7 +17558,7 @@
         <v>0.22483333333333333</v>
       </c>
       <c r="AX85" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.242136688624683</v>
       </c>
       <c r="AY85" s="67"/>
@@ -17711,18 +17703,18 @@
         <v>2.6654360844529501</v>
       </c>
       <c r="AP86" s="144">
-        <f t="shared" si="15"/>
+        <f>AX86/AX85</f>
         <v>1.0162344983089064</v>
       </c>
       <c r="AQ86" s="53">
         <v>240.19014000000001</v>
       </c>
       <c r="AR86" s="87">
+        <f t="shared" si="15"/>
+        <v>79242.155473584455</v>
+      </c>
+      <c r="AS86" s="87">
         <f t="shared" si="16"/>
-        <v>79242.155473584455</v>
-      </c>
-      <c r="AS86" s="87">
-        <f t="shared" si="17"/>
         <v>553.74209816415066</v>
       </c>
       <c r="AT86" s="56">
@@ -17733,7 +17725,7 @@
         <v>1.0249786977625122</v>
       </c>
       <c r="AV86" s="143">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>1.0052962415874571</v>
       </c>
       <c r="AW86" s="139">
@@ -17741,7 +17733,7 @@
         <v>0.12433333333333316</v>
       </c>
       <c r="AX86" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.392178141066843</v>
       </c>
     </row>
@@ -17884,29 +17876,29 @@
         <v>2.7037029989067567</v>
       </c>
       <c r="AP87" s="144">
-        <f t="shared" si="15"/>
+        <f>AX87/AX86</f>
         <v>1.0055469270024406</v>
       </c>
       <c r="AQ87" s="53">
         <v>243.36976000000001</v>
       </c>
       <c r="AR87" s="87">
+        <f t="shared" si="15"/>
+        <v>74313.67972184869</v>
+      </c>
+      <c r="AS87" s="87">
         <f t="shared" si="16"/>
-        <v>74313.67972184869</v>
-      </c>
-      <c r="AS87" s="87">
-        <f t="shared" si="17"/>
         <v>518.92128737115729</v>
       </c>
       <c r="AT87" s="56">
         <v>0.15517247994757699</v>
       </c>
       <c r="AU87" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0261311762479843</v>
+      </c>
+      <c r="AV87" s="143">
         <f t="shared" si="18"/>
-        <v>1.0261311762479843</v>
-      </c>
-      <c r="AV87" s="143">
-        <f t="shared" si="19"/>
         <v>1.0107188861653591</v>
       </c>
       <c r="AW87" s="139">
@@ -17914,7 +17906,7 @@
         <v>0.13833333333333314</v>
       </c>
       <c r="AX87" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.4442758676092602</v>
       </c>
     </row>
@@ -18057,29 +18049,29 @@
         <v>2.6396693033114182</v>
       </c>
       <c r="AP88" s="144">
-        <f t="shared" si="15"/>
+        <f>AX88/AX87</f>
         <v>1.0249338040600178</v>
       </c>
       <c r="AQ88" s="53">
         <v>241.66166000000001</v>
       </c>
       <c r="AR88" s="87">
+        <f t="shared" si="15"/>
+        <v>73085.251604811536</v>
+      </c>
+      <c r="AS88" s="87">
         <f t="shared" si="16"/>
-        <v>73085.251604811536</v>
-      </c>
-      <c r="AS88" s="87">
-        <f t="shared" si="17"/>
         <v>509.99791776149846</v>
       </c>
       <c r="AT88" s="56">
         <v>0.13624814213675299</v>
       </c>
       <c r="AU88" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0261966243409977</v>
+      </c>
+      <c r="AV88" s="143">
         <f t="shared" si="18"/>
-        <v>1.0261966243409977</v>
-      </c>
-      <c r="AV88" s="143">
-        <f t="shared" si="19"/>
         <v>1.0006501867214863</v>
       </c>
       <c r="AW88" s="139">
@@ -18087,7 +18079,7 @@
         <v>7.8833333333333158E-2</v>
       </c>
       <c r="AX88" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.6797575915809837</v>
       </c>
     </row>
@@ -18230,29 +18222,29 @@
         <v>2.8959579735293985</v>
       </c>
       <c r="AP89" s="144">
-        <f t="shared" si="15"/>
+        <f>AX89/AX88</f>
         <v>1.0195909580193756</v>
       </c>
       <c r="AQ89" s="53">
         <v>249.94111000000001</v>
       </c>
       <c r="AR89" s="87">
+        <f t="shared" si="15"/>
+        <v>79427.701729229317</v>
+      </c>
+      <c r="AS89" s="87">
         <f t="shared" si="16"/>
-        <v>79427.701729229317</v>
-      </c>
-      <c r="AS89" s="87">
-        <f t="shared" si="17"/>
         <v>553.98957781208117</v>
       </c>
       <c r="AT89" s="56">
         <v>0.21890949805064699</v>
       </c>
       <c r="AU89" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0243348150118876</v>
+      </c>
+      <c r="AV89" s="143">
         <f t="shared" si="18"/>
-        <v>1.0243348150118876</v>
-      </c>
-      <c r="AV89" s="143">
-        <f t="shared" si="19"/>
         <v>1.0039552038730883</v>
       </c>
       <c r="AW89" s="139">
@@ -18260,7 +18252,7 @@
         <v>8.3500000000000005E-2</v>
       </c>
       <c r="AX89" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.8693933161953797</v>
       </c>
     </row>
@@ -18403,29 +18395,29 @@
         <v>2.8439407910883459</v>
       </c>
       <c r="AP90" s="144">
-        <f t="shared" si="15"/>
+        <f>AX90/AX89</f>
         <v>0.99113175675675658</v>
       </c>
       <c r="AQ90" s="53">
         <v>251.66309000000001</v>
       </c>
       <c r="AR90" s="87">
+        <f t="shared" si="15"/>
+        <v>75650.903565892891</v>
+      </c>
+      <c r="AS90" s="87">
         <f t="shared" si="16"/>
-        <v>75650.903565892891</v>
-      </c>
-      <c r="AS90" s="87">
-        <f t="shared" si="17"/>
         <v>527.57002382156202</v>
       </c>
       <c r="AT90" s="56">
         <v>0.17142770954640599</v>
       </c>
       <c r="AU90" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0256500130965049</v>
+      </c>
+      <c r="AV90" s="143">
         <f t="shared" si="18"/>
-        <v>1.0256500130965049</v>
-      </c>
-      <c r="AV90" s="143">
-        <f t="shared" si="19"/>
         <v>1.0022115783369041</v>
       </c>
       <c r="AW90" s="139">
@@ -18433,7 +18425,7 @@
         <v>8.7833333333333152E-2</v>
       </c>
       <c r="AX90" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.7818691356041185</v>
       </c>
     </row>
@@ -18576,29 +18568,29 @@
         <v>2.9066339513148178</v>
       </c>
       <c r="AP91" s="144">
-        <f t="shared" si="15"/>
+        <f>AX91/AX90</f>
         <v>0.98892202812100549</v>
       </c>
       <c r="AQ91" s="53">
         <v>257.78422999999998</v>
       </c>
       <c r="AR91" s="87">
+        <f t="shared" si="15"/>
+        <v>73489.843786461497</v>
+      </c>
+      <c r="AS91" s="87">
         <f t="shared" si="16"/>
-        <v>73489.843786461497</v>
-      </c>
-      <c r="AS91" s="87">
-        <f t="shared" si="17"/>
         <v>512.60659007750496</v>
       </c>
       <c r="AT91" s="56">
         <v>0.145689930724241</v>
       </c>
       <c r="AU91" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0291111954434151</v>
+      </c>
+      <c r="AV91" s="143">
         <f t="shared" si="18"/>
-        <v>1.0291111954434151</v>
-      </c>
-      <c r="AV91" s="143">
-        <f t="shared" si="19"/>
         <v>1.0071051647421634</v>
       </c>
       <c r="AW91" s="139">
@@ -18606,7 +18598,7 @@
         <v>7.3166666666666852E-2</v>
       </c>
       <c r="AX91" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.6735058643958922</v>
       </c>
     </row>
@@ -18749,29 +18741,29 @@
         <v>2.8785234606096193</v>
       </c>
       <c r="AP92" s="144">
-        <f t="shared" si="15"/>
+        <f>AX92/AX91</f>
         <v>1.0438646647504635</v>
       </c>
       <c r="AQ92" s="53">
         <v>257.56346000000002</v>
       </c>
       <c r="AR92" s="87">
+        <f t="shared" si="15"/>
+        <v>76028.762449700283</v>
+      </c>
+      <c r="AS92" s="87">
         <f t="shared" si="16"/>
-        <v>76028.762449700283</v>
-      </c>
-      <c r="AS92" s="87">
-        <f t="shared" si="17"/>
         <v>530.36785547153693</v>
       </c>
       <c r="AT92" s="56">
         <v>0.184465132300076</v>
       </c>
       <c r="AU92" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0345543213574844</v>
+      </c>
+      <c r="AV92" s="143">
         <f t="shared" si="18"/>
-        <v>1.0345543213574844</v>
-      </c>
-      <c r="AV92" s="143">
-        <f t="shared" si="19"/>
         <v>1.0012433429362002</v>
       </c>
       <c r="AW92" s="139">
@@ -18779,7 +18771,7 @@
         <v>6.8333333333333315E-2</v>
       </c>
       <c r="AX92" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>10.09783095609926</v>
       </c>
     </row>
@@ -18922,29 +18914,29 @@
         <v>3.1203836872534532</v>
       </c>
       <c r="AP93" s="144">
-        <f t="shared" si="15"/>
+        <f>AX93/AX92</f>
         <v>1.0002254791431808</v>
       </c>
       <c r="AQ93" s="53">
         <v>260.23662000000002</v>
       </c>
       <c r="AR93" s="87">
+        <f t="shared" si="15"/>
+        <v>78863.290493325461</v>
+      </c>
+      <c r="AS93" s="87">
         <f t="shared" si="16"/>
-        <v>78863.290493325461</v>
-      </c>
-      <c r="AS93" s="87">
-        <f t="shared" si="17"/>
         <v>549.81901553543742</v>
       </c>
       <c r="AT93" s="56">
         <v>0.226638813047745</v>
       </c>
       <c r="AU93" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0407111603828958</v>
+      </c>
+      <c r="AV93" s="143">
         <f t="shared" si="18"/>
-        <v>1.0407111603828958</v>
-      </c>
-      <c r="AV93" s="143">
-        <f t="shared" si="19"/>
         <v>0.9998942715679856</v>
       </c>
       <c r="AW93" s="139">
@@ -18952,7 +18944,7 @@
         <v>8.8166666666666699E-2</v>
       </c>
       <c r="AX93" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>10.100107806371227</v>
       </c>
     </row>
@@ -19095,29 +19087,29 @@
         <v>2.8951382620430364</v>
       </c>
       <c r="AP94" s="144">
-        <f t="shared" si="15"/>
+        <f>AX94/AX93</f>
         <v>1.0109541253381409</v>
       </c>
       <c r="AQ94" s="53">
         <v>262.24925000000002</v>
       </c>
       <c r="AR94" s="87">
+        <f t="shared" si="15"/>
+        <v>71749.131523944467</v>
+      </c>
+      <c r="AS94" s="87">
         <f t="shared" si="16"/>
-        <v>71749.131523944467</v>
-      </c>
-      <c r="AS94" s="87">
-        <f t="shared" si="17"/>
         <v>499.29806210121416</v>
       </c>
       <c r="AT94" s="56">
         <v>0.13796227461289501</v>
       </c>
       <c r="AU94" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0413638195194512</v>
+      </c>
+      <c r="AV94" s="143">
         <f t="shared" si="18"/>
-        <v>1.0413638195194512</v>
-      </c>
-      <c r="AV94" s="143">
-        <f t="shared" si="19"/>
         <v>1.0023619178506364</v>
       </c>
       <c r="AW94" s="139">
@@ -19125,7 +19117,7 @@
         <v>0.10333333333333333</v>
       </c>
       <c r="AX94" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>10.210745653210953</v>
       </c>
     </row>
@@ -19268,29 +19260,29 @@
         <v>2.8635858050882907</v>
       </c>
       <c r="AP95" s="144">
-        <f t="shared" si="15"/>
+        <f>AX95/AX94</f>
         <v>1.0265717055676464</v>
       </c>
       <c r="AQ95" s="53">
         <v>262.69961000000001</v>
       </c>
       <c r="AR95" s="87">
+        <f t="shared" si="15"/>
+        <v>76190.421367013128</v>
+      </c>
+      <c r="AS95" s="87">
         <f t="shared" si="16"/>
-        <v>76190.421367013128</v>
-      </c>
-      <c r="AS95" s="87">
-        <f t="shared" si="17"/>
         <v>528.36997043677923</v>
       </c>
       <c r="AT95" s="56">
         <v>0.20374258093511299</v>
       </c>
       <c r="AU95" s="139">
+        <f t="shared" si="17"/>
+        <v>1.048219875186696</v>
+      </c>
+      <c r="AV95" s="143">
         <f t="shared" si="18"/>
-        <v>1.048219875186696</v>
-      </c>
-      <c r="AV95" s="143">
-        <f t="shared" si="19"/>
         <v>1.0102636650716166</v>
       </c>
       <c r="AW95" s="139">
@@ -19298,7 +19290,7 @@
         <v>0.10983333333333331</v>
       </c>
       <c r="AX95" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>10.482062580334199</v>
       </c>
     </row>
@@ -19441,29 +19433,29 @@
         <v>2.8269093669870737</v>
       </c>
       <c r="AP96" s="144">
-        <f t="shared" si="15"/>
+        <f>AX96/AX95</f>
         <v>1.0206741573793876</v>
       </c>
       <c r="AQ96" s="53">
         <v>258.84987000000001</v>
       </c>
       <c r="AR96" s="87">
+        <f t="shared" si="15"/>
+        <v>71362.123216030523</v>
+      </c>
+      <c r="AS96" s="87">
         <f t="shared" si="16"/>
-        <v>71362.123216030523</v>
-      </c>
-      <c r="AS96" s="87">
-        <f t="shared" si="17"/>
         <v>492.62141359383776</v>
       </c>
       <c r="AT96" s="56">
         <v>0.144611368500209</v>
       </c>
       <c r="AU96" s="139">
+        <f t="shared" si="17"/>
+        <v>1.055709173032739</v>
+      </c>
+      <c r="AV96" s="143">
         <f t="shared" si="18"/>
-        <v>1.055709173032739</v>
-      </c>
-      <c r="AV96" s="143">
-        <f t="shared" si="19"/>
         <v>0.99888854015282902</v>
       </c>
       <c r="AW96" s="139">
@@ -19471,7 +19463,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
       <c r="AX96" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>10.698770391780618</v>
       </c>
     </row>
@@ -19614,29 +19606,29 @@
         <v>2.8470510600530452</v>
       </c>
       <c r="AP97" s="144">
-        <f t="shared" si="15"/>
+        <f>AX97/AX96</f>
         <v>0.99766438788241274</v>
       </c>
       <c r="AQ97" s="53">
         <v>255.50438</v>
       </c>
       <c r="AR97" s="87">
+        <f t="shared" si="15"/>
+        <v>62468.529539050578</v>
+      </c>
+      <c r="AS97" s="87">
         <f t="shared" si="16"/>
-        <v>62468.529539050578</v>
-      </c>
-      <c r="AS97" s="87">
-        <f t="shared" si="17"/>
         <v>429.08630380225003</v>
       </c>
       <c r="AT97" s="56">
         <v>1.8801226897745701E-2</v>
       </c>
       <c r="AU97" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0604258051279618</v>
+      </c>
+      <c r="AV97" s="143">
         <f t="shared" si="18"/>
-        <v>1.0604258051279618</v>
-      </c>
-      <c r="AV97" s="143">
-        <f t="shared" si="19"/>
         <v>0.99608123712477825</v>
       </c>
       <c r="AW97" s="139">
@@ -19644,7 +19636,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="AX97" s="86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>10.673782214010291</v>
       </c>
     </row>
@@ -19734,14 +19726,14 @@
         <v>66.136860000000013</v>
       </c>
       <c r="AB98" s="88">
-        <f t="shared" ref="AB98:AB102" si="21">100*(B98-E98+F98)/C98</f>
+        <f t="shared" ref="AB98:AB102" si="20">100*(B98-E98+F98)/C98</f>
         <v>10045.816296311754</v>
       </c>
       <c r="AC98" s="5">
         <v>11505.156000000001</v>
       </c>
       <c r="AD98" s="132">
-        <f t="shared" ref="AD98:AD102" si="22">AC98*1000/R98</f>
+        <f t="shared" ref="AD98:AD102" si="21">AC98*1000/R98</f>
         <v>78658.590112602295</v>
       </c>
       <c r="AE98" s="90">
@@ -19749,14 +19741,14 @@
         <v>1.3483714496645114</v>
       </c>
       <c r="AF98" s="89">
-        <f t="shared" ref="AF98:AF102" si="23">D98*100/C98</f>
+        <f t="shared" ref="AF98:AF102" si="22">D98*100/C98</f>
         <v>6291.1897720914503</v>
       </c>
       <c r="AG98" s="5">
         <v>6795.2960000000003</v>
       </c>
       <c r="AH98" s="132">
-        <f t="shared" ref="AH98:AH102" si="24">AG98*1000/R98</f>
+        <f t="shared" ref="AH98:AH102" si="23">AG98*1000/R98</f>
         <v>46458.162128162883</v>
       </c>
       <c r="AI98" s="90">
@@ -19768,11 +19760,11 @@
         <v>1.0809881881152259</v>
       </c>
       <c r="AK98" s="89">
-        <f t="shared" ref="AK98:AK102" si="25">W98/W$59*X98/X$59/G98*G$59</f>
+        <f t="shared" ref="AK98:AK102" si="24">W98/W$59*X98/X$59/G98*G$59</f>
         <v>1.115190910658578</v>
       </c>
       <c r="AL98" s="89">
-        <f t="shared" ref="AL98:AL102" si="26">T98/T$59*S98/S$59/G98*G$59</f>
+        <f t="shared" ref="AL98:AL102" si="25">T98/T$59*S98/S$59/G98*G$59</f>
         <v>0.97759922621527828</v>
       </c>
       <c r="AM98" s="132">
@@ -19780,7 +19772,7 @@
         <v>1.0510284057469046</v>
       </c>
       <c r="AN98" s="91">
-        <f t="shared" ref="AN98:AN102" si="27">L98/G98*100000/R98</f>
+        <f t="shared" ref="AN98:AN102" si="26">L98/G98*100000/R98</f>
         <v>144206.65944533594</v>
       </c>
       <c r="AO98" s="90">
@@ -19788,37 +19780,37 @@
         <v>2.5728126490795185</v>
       </c>
       <c r="AP98" s="144">
-        <f t="shared" si="15"/>
+        <f>AX98/AX97</f>
         <v>1.0499804763764153</v>
       </c>
       <c r="AQ98" s="53">
         <v>238.96807000000001</v>
       </c>
       <c r="AR98" s="87">
+        <f t="shared" si="15"/>
+        <v>50891.118371812619</v>
+      </c>
+      <c r="AS98" s="87">
         <f t="shared" si="16"/>
-        <v>50891.118371812619</v>
-      </c>
-      <c r="AS98" s="87">
-        <f t="shared" si="17"/>
         <v>347.93301545675115</v>
       </c>
       <c r="AT98" s="56">
         <v>-0.17708301833944401</v>
       </c>
       <c r="AU98" s="139">
+        <f t="shared" si="17"/>
+        <v>1.0656732471674988</v>
+      </c>
+      <c r="AV98" s="143">
         <f t="shared" si="18"/>
-        <v>1.0656732471674988</v>
-      </c>
-      <c r="AV98" s="143">
+        <v>0.99307469474410703</v>
+      </c>
+      <c r="AW98" s="139">
+        <f t="shared" ref="AW98:AW102" si="27">U98*0.45+Z98*0.55</f>
+        <v>-6.9999999999999993E-3</v>
+      </c>
+      <c r="AX98" s="86">
         <f t="shared" si="19"/>
-        <v>0.99307469474410703</v>
-      </c>
-      <c r="AW98" s="139">
-        <f t="shared" ref="AW98:AW102" si="28">U98*0.45+Z98*0.55</f>
-        <v>-6.9999999999999993E-3</v>
-      </c>
-      <c r="AX98" s="86">
-        <f t="shared" si="20"/>
         <v>11.207262933804635</v>
       </c>
     </row>
@@ -19830,7 +19822,7 @@
         <v>19694.551299999999</v>
       </c>
       <c r="C99" s="101">
-        <f t="shared" ref="C99:C102" si="29">C105*C95/100</f>
+        <f t="shared" ref="C99:C102" si="28">C105*C95/100</f>
         <v>161.72568526748458</v>
       </c>
       <c r="D99" s="94">
@@ -19876,7 +19868,7 @@
         <v>93.751777756708094</v>
       </c>
       <c r="R99" s="12">
-        <f t="shared" ref="R99:R112" si="30">O99/10^3</f>
+        <f t="shared" ref="R99:R112" si="29">O99/10^3</f>
         <v>146.80600000000001</v>
       </c>
       <c r="S99" s="158">
@@ -19904,33 +19896,33 @@
         <v>0.123333333333333</v>
       </c>
       <c r="AA99" s="87">
-        <f t="shared" ref="AA99:AA102" si="31">T99*0.45+W99*0.55</f>
+        <f t="shared" ref="AA99:AA102" si="30">T99*0.45+W99*0.55</f>
         <v>55.155915000000007</v>
       </c>
       <c r="AB99" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>11063.727799580034</v>
       </c>
       <c r="AC99" s="5">
         <v>11506.933000000001</v>
       </c>
       <c r="AD99" s="132">
+        <f t="shared" si="21"/>
+        <v>78381.898560004352</v>
+      </c>
+      <c r="AE99" s="90">
+        <f t="shared" ref="AE99:AE102" si="31">AD99/AD$59</f>
+        <v>1.3436283823230764</v>
+      </c>
+      <c r="AF99" s="89">
         <f t="shared" si="22"/>
-        <v>78381.898560004352</v>
-      </c>
-      <c r="AE99" s="90">
-        <f t="shared" ref="AE99:AE102" si="32">AD99/AD$59</f>
-        <v>1.3436283823230764</v>
-      </c>
-      <c r="AF99" s="89">
-        <f t="shared" si="23"/>
         <v>6612.2557974098154</v>
       </c>
       <c r="AG99" s="5">
         <v>6760.5123999999996</v>
       </c>
       <c r="AH99" s="132">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>46050.654605397591</v>
       </c>
       <c r="AI99" s="90">
@@ -19938,61 +19930,61 @@
         <v>1.3623865850139334</v>
       </c>
       <c r="AJ99" s="132">
-        <f t="shared" ref="AJ99:AJ102" si="33">G99/G98</f>
+        <f t="shared" ref="AJ99:AJ102" si="32">G99/G98</f>
         <v>1.0230541209782207</v>
       </c>
       <c r="AK99" s="89">
+        <f t="shared" si="24"/>
+        <v>0.93398354596900768</v>
+      </c>
+      <c r="AL99" s="89">
         <f t="shared" si="25"/>
-        <v>0.93398354596900768</v>
-      </c>
-      <c r="AL99" s="89">
+        <v>0.79457306397797889</v>
+      </c>
+      <c r="AM99" s="132">
+        <f t="shared" ref="AM99:AM102" si="33">AK99^0.55*AL99^0.45</f>
+        <v>0.86845396276244446</v>
+      </c>
+      <c r="AN99" s="91">
         <f t="shared" si="26"/>
-        <v>0.79457306397797889</v>
-      </c>
-      <c r="AM99" s="132">
-        <f t="shared" ref="AM99:AM102" si="34">AK99^0.55*AL99^0.45</f>
-        <v>0.86845396276244446</v>
-      </c>
-      <c r="AN99" s="91">
-        <f t="shared" si="27"/>
         <v>144644.6810945379</v>
       </c>
       <c r="AO99" s="90">
-        <f t="shared" ref="AO99:AO102" si="35">AN99/AN$59</f>
+        <f t="shared" ref="AO99:AO102" si="34">AN99/AN$59</f>
         <v>2.5806274590471858</v>
       </c>
       <c r="AP99" s="144">
-        <f t="shared" ref="AP99:AP102" si="36">AX99/AX98</f>
+        <f>AX99/AX98</f>
         <v>1.0645221271848271</v>
       </c>
       <c r="AQ99" s="53">
         <v>239.75642999999999</v>
       </c>
       <c r="AR99" s="87">
-        <f t="shared" ref="AR99:AR102" si="37">N99*W99/AA99</f>
+        <f t="shared" ref="AR99:AR102" si="35">N99*W99/AA99</f>
         <v>52448.572106908199</v>
       </c>
       <c r="AS99" s="87">
-        <f t="shared" ref="AS99:AS102" si="38">AR99/R99</f>
+        <f t="shared" ref="AS99:AS102" si="36">AR99/R99</f>
         <v>357.26449945443778</v>
       </c>
       <c r="AT99" s="56">
         <v>-0.13505408240259301</v>
       </c>
       <c r="AU99" s="139">
-        <f t="shared" ref="AU99:AU102" si="39">(V99/100)^0.45*(Y99/100)^0.55</f>
+        <f t="shared" ref="AU99:AU102" si="37">(V99/100)^0.45*(Y99/100)^0.55</f>
         <v>1.0731055348108602</v>
       </c>
       <c r="AV99" s="143">
-        <f t="shared" ref="AV99:AV102" si="40">(S99/S98)^0.45*(X99/X98)^0.55</f>
+        <f t="shared" ref="AV99:AV102" si="38">(S99/S98)^0.45*(X99/X98)^0.55</f>
         <v>1.0127175962822792</v>
       </c>
       <c r="AW99" s="139">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>-3.5666666666666846E-2</v>
       </c>
       <c r="AX99" s="86">
-        <f t="shared" ref="AX99:AX102" si="41">(H99/100+1)*AX98</f>
+        <f t="shared" ref="AX99:AX102" si="39">(H99/100+1)*AX98</f>
         <v>11.930379378213376</v>
       </c>
     </row>
@@ -20004,7 +19996,7 @@
         <v>22115.958699999999</v>
       </c>
       <c r="C100" s="101">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>164.53000286543119</v>
       </c>
       <c r="D100" s="94">
@@ -20050,7 +20042,7 @@
         <v>93.107044657248494</v>
       </c>
       <c r="R100" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>147.1</v>
       </c>
       <c r="S100" s="158">
@@ -20078,33 +20070,33 @@
         <v>0.13166666666666699</v>
       </c>
       <c r="AA100" s="87">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>66.286484999999999</v>
       </c>
       <c r="AB100" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>12800.312729116784</v>
       </c>
       <c r="AC100" s="5">
         <v>11694.951999999999</v>
       </c>
       <c r="AD100" s="132">
+        <f t="shared" si="21"/>
+        <v>79503.41264445956</v>
+      </c>
+      <c r="AE100" s="90">
+        <f t="shared" si="31"/>
+        <v>1.3628534608518326</v>
+      </c>
+      <c r="AF100" s="89">
         <f t="shared" si="22"/>
-        <v>79503.41264445956</v>
-      </c>
-      <c r="AE100" s="90">
-        <f t="shared" si="32"/>
-        <v>1.3628534608518326</v>
-      </c>
-      <c r="AF100" s="89">
-        <f t="shared" si="23"/>
         <v>6687.5516370101568</v>
       </c>
       <c r="AG100" s="5">
         <v>6639.3504999999996</v>
       </c>
       <c r="AH100" s="132">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>45134.945615227734</v>
       </c>
       <c r="AI100" s="90">
@@ -20112,61 +20104,61 @@
         <v>1.3352957726319126</v>
       </c>
       <c r="AJ100" s="132">
+        <f t="shared" si="32"/>
+        <v>1.0147343269618605</v>
+      </c>
+      <c r="AK100" s="89">
+        <f t="shared" si="24"/>
+        <v>1.104289582259149</v>
+      </c>
+      <c r="AL100" s="89">
+        <f t="shared" si="25"/>
+        <v>0.9409321205384672</v>
+      </c>
+      <c r="AM100" s="132">
         <f t="shared" si="33"/>
-        <v>1.0147343269618605</v>
-      </c>
-      <c r="AK100" s="89">
-        <f t="shared" si="25"/>
-        <v>1.104289582259149</v>
-      </c>
-      <c r="AL100" s="89">
+        <v>1.0275355795350054</v>
+      </c>
+      <c r="AN100" s="91">
         <f t="shared" si="26"/>
-        <v>0.9409321205384672</v>
-      </c>
-      <c r="AM100" s="132">
+        <v>142777.63951428814</v>
+      </c>
+      <c r="AO100" s="90">
         <f t="shared" si="34"/>
-        <v>1.0275355795350054</v>
-      </c>
-      <c r="AN100" s="91">
-        <f t="shared" si="27"/>
-        <v>142777.63951428814</v>
-      </c>
-      <c r="AO100" s="90">
-        <f t="shared" si="35"/>
         <v>2.5473172900681669</v>
       </c>
       <c r="AP100" s="144">
-        <f t="shared" si="36"/>
+        <f>AX100/AX99</f>
         <v>1.0122270742358077</v>
       </c>
       <c r="AQ100" s="53">
         <v>234.00584000000001</v>
       </c>
       <c r="AR100" s="87">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>43556.892479666101</v>
       </c>
       <c r="AS100" s="87">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>296.10395975299866</v>
       </c>
       <c r="AT100" s="56">
         <v>-0.306707810558486</v>
       </c>
       <c r="AU100" s="139">
+        <f t="shared" si="37"/>
+        <v>1.0775354334805922</v>
+      </c>
+      <c r="AV100" s="143">
+        <f t="shared" si="38"/>
+        <v>0.99924798385335145</v>
+      </c>
+      <c r="AW100" s="139">
+        <f t="shared" si="27"/>
+        <v>-3.1083333333333157E-2</v>
+      </c>
+      <c r="AX100" s="86">
         <f t="shared" si="39"/>
-        <v>1.0775354334805922</v>
-      </c>
-      <c r="AV100" s="143">
-        <f t="shared" si="40"/>
-        <v>0.99924798385335145</v>
-      </c>
-      <c r="AW100" s="139">
-        <f t="shared" si="28"/>
-        <v>-3.1083333333333157E-2</v>
-      </c>
-      <c r="AX100" s="86">
-        <f t="shared" si="41"/>
         <v>12.07625301253214</v>
       </c>
     </row>
@@ -20178,7 +20170,7 @@
         <v>22985.788100000002</v>
       </c>
       <c r="C101" s="101">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>165.44878877874982</v>
       </c>
       <c r="D101" s="94">
@@ -20224,7 +20216,7 @@
         <v>92.860529060396303</v>
       </c>
       <c r="R101" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>147.048</v>
       </c>
       <c r="S101" s="158">
@@ -20252,33 +20244,33 @@
         <v>0.16166666666666701</v>
       </c>
       <c r="AA101" s="87">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>68.838295000000016</v>
       </c>
       <c r="AB101" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>12961.1971524776</v>
       </c>
       <c r="AC101" s="5">
         <v>11568.989</v>
       </c>
       <c r="AD101" s="132">
+        <f t="shared" si="21"/>
+        <v>78674.915673793585</v>
+      </c>
+      <c r="AE101" s="90">
+        <f t="shared" si="31"/>
+        <v>1.3486513036585708</v>
+      </c>
+      <c r="AF101" s="89">
         <f t="shared" si="22"/>
-        <v>78674.915673793585</v>
-      </c>
-      <c r="AE101" s="90">
-        <f t="shared" si="32"/>
-        <v>1.3486513036585708</v>
-      </c>
-      <c r="AF101" s="89">
-        <f t="shared" si="23"/>
         <v>7031.8398737617581</v>
       </c>
       <c r="AG101" s="5">
         <v>6535.1408000000001</v>
       </c>
       <c r="AH101" s="132">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44442.228388009353</v>
       </c>
       <c r="AI101" s="90">
@@ -20286,61 +20278,61 @@
         <v>1.3148020648734184</v>
       </c>
       <c r="AJ101" s="132">
+        <f t="shared" si="32"/>
+        <v>1.0200755561725314</v>
+      </c>
+      <c r="AK101" s="89">
+        <f t="shared" si="24"/>
+        <v>1.1275500649958381</v>
+      </c>
+      <c r="AL101" s="89">
+        <f t="shared" si="25"/>
+        <v>0.95182671591108936</v>
+      </c>
+      <c r="AM101" s="132">
         <f t="shared" si="33"/>
-        <v>1.0200755561725314</v>
-      </c>
-      <c r="AK101" s="89">
-        <f t="shared" si="25"/>
-        <v>1.1275500649958381</v>
-      </c>
-      <c r="AL101" s="89">
+        <v>1.0447821871966456</v>
+      </c>
+      <c r="AN101" s="91">
         <f t="shared" si="26"/>
-        <v>0.95182671591108936</v>
-      </c>
-      <c r="AM101" s="132">
+        <v>153573.04598182719</v>
+      </c>
+      <c r="AO101" s="90">
         <f t="shared" si="34"/>
-        <v>1.0447821871966456</v>
-      </c>
-      <c r="AN101" s="91">
-        <f t="shared" si="27"/>
-        <v>153573.04598182719</v>
-      </c>
-      <c r="AO101" s="90">
-        <f t="shared" si="35"/>
         <v>2.7399197566842646</v>
       </c>
       <c r="AP101" s="144">
-        <f t="shared" si="36"/>
+        <f>AX101/AX100</f>
         <v>0.99844693701466769</v>
       </c>
       <c r="AQ101" s="53">
         <v>230.91015999999999</v>
       </c>
       <c r="AR101" s="87">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>42125.589542855465</v>
       </c>
       <c r="AS101" s="87">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>286.4750934582957</v>
       </c>
       <c r="AT101" s="56">
         <v>-0.32042951083263999</v>
       </c>
       <c r="AU101" s="139">
+        <f t="shared" si="37"/>
+        <v>1.0816175019706384</v>
+      </c>
+      <c r="AV101" s="143">
+        <f t="shared" si="38"/>
+        <v>0.99834816398740256</v>
+      </c>
+      <c r="AW101" s="139">
+        <f t="shared" si="27"/>
+        <v>-7.7583333333333143E-2</v>
+      </c>
+      <c r="AX101" s="86">
         <f t="shared" si="39"/>
-        <v>1.0816175019706384</v>
-      </c>
-      <c r="AV101" s="143">
-        <f t="shared" si="40"/>
-        <v>0.99834816398740256</v>
-      </c>
-      <c r="AW101" s="139">
-        <f t="shared" si="28"/>
-        <v>-7.7583333333333143E-2</v>
-      </c>
-      <c r="AX101" s="86">
-        <f t="shared" si="41"/>
         <v>12.057497830976869</v>
       </c>
     </row>
@@ -20352,7 +20344,7 @@
         <v>18804.193899999998</v>
       </c>
       <c r="C102" s="101">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>167.54165464041887</v>
       </c>
       <c r="D102" s="94">
@@ -20398,7 +20390,7 @@
         <v>92.291646913814304</v>
       </c>
       <c r="R102" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>146.54599999999999</v>
       </c>
       <c r="S102" s="158">
@@ -20426,33 +20418,33 @@
         <v>0.36</v>
       </c>
       <c r="AA102" s="87">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>78.160269999999997</v>
       </c>
       <c r="AB102" s="88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>10440.22344027882</v>
       </c>
       <c r="AC102" s="5">
         <v>11786.155000000001</v>
       </c>
       <c r="AD102" s="132">
+        <f t="shared" si="21"/>
+        <v>80426.316651426867</v>
+      </c>
+      <c r="AE102" s="90">
+        <f t="shared" si="31"/>
+        <v>1.3786739505401715</v>
+      </c>
+      <c r="AF102" s="89">
         <f t="shared" si="22"/>
-        <v>80426.316651426867</v>
-      </c>
-      <c r="AE102" s="90">
-        <f t="shared" si="32"/>
-        <v>1.3786739505401715</v>
-      </c>
-      <c r="AF102" s="89">
-        <f t="shared" si="23"/>
         <v>6339.0108703378191</v>
       </c>
       <c r="AG102" s="5">
         <v>6683.5308000000005</v>
       </c>
       <c r="AH102" s="132">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>45607.050345966461</v>
       </c>
       <c r="AI102" s="92">
@@ -20460,61 +20452,61 @@
         <v>1.3492627652271636</v>
       </c>
       <c r="AJ102" s="132">
+        <f t="shared" si="32"/>
+        <v>1.023129504684738</v>
+      </c>
+      <c r="AK102" s="89">
+        <f t="shared" si="24"/>
+        <v>1.248927087571039</v>
+      </c>
+      <c r="AL102" s="89">
+        <f t="shared" si="25"/>
+        <v>1.0488465134379272</v>
+      </c>
+      <c r="AM102" s="132">
         <f t="shared" si="33"/>
-        <v>1.023129504684738</v>
-      </c>
-      <c r="AK102" s="89">
-        <f t="shared" si="25"/>
-        <v>1.248927087571039</v>
-      </c>
-      <c r="AL102" s="89">
+        <v>1.1545580381521892</v>
+      </c>
+      <c r="AN102" s="91">
         <f t="shared" si="26"/>
-        <v>1.0488465134379272</v>
-      </c>
-      <c r="AM102" s="132">
+        <v>148556.14294201217</v>
+      </c>
+      <c r="AO102" s="90">
         <f t="shared" si="34"/>
-        <v>1.1545580381521892</v>
-      </c>
-      <c r="AN102" s="91">
-        <f t="shared" si="27"/>
-        <v>148556.14294201217</v>
-      </c>
-      <c r="AO102" s="90">
-        <f t="shared" si="35"/>
         <v>2.6504124367748512</v>
       </c>
       <c r="AP102" s="144">
-        <f t="shared" si="36"/>
+        <f>AX102/AX101</f>
         <v>0.96889042516418955</v>
       </c>
       <c r="AQ102" s="53">
         <v>237.23322999999999</v>
       </c>
       <c r="AR102" s="87">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>30816.800338586352</v>
       </c>
       <c r="AS102" s="87">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>210.28755707140661</v>
       </c>
       <c r="AT102" s="56">
         <v>-0.60936586202931897</v>
       </c>
       <c r="AU102" s="139">
+        <f t="shared" si="37"/>
+        <v>1.0858778313929554</v>
+      </c>
+      <c r="AV102" s="143">
+        <f t="shared" si="38"/>
+        <v>0.99591570954457853</v>
+      </c>
+      <c r="AW102" s="139">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AX102" s="86">
         <f t="shared" si="39"/>
-        <v>1.0858778313929554</v>
-      </c>
-      <c r="AV102" s="143">
-        <f t="shared" si="40"/>
-        <v>0.99591570954457853</v>
-      </c>
-      <c r="AW102" s="139">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AX102" s="86">
-        <f t="shared" si="41"/>
         <v>11.682394199871473</v>
       </c>
     </row>
@@ -20554,7 +20546,7 @@
         <v>243.24</v>
       </c>
       <c r="R103" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S103" s="158">
@@ -20610,7 +20602,7 @@
         <v>230.1</v>
       </c>
       <c r="R104" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S104" s="158">
@@ -20664,7 +20656,7 @@
         <v>253.8</v>
       </c>
       <c r="R105" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S105" s="158">
@@ -20721,7 +20713,7 @@
         <v>233.75</v>
       </c>
       <c r="R106" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>146.81299999999999</v>
       </c>
       <c r="S106" s="158">
@@ -20773,7 +20765,7 @@
         <v>258.29000000000002</v>
       </c>
       <c r="R107" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S107" s="158">
@@ -20825,7 +20817,7 @@
         <v>242.8</v>
       </c>
       <c r="R108" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S108" s="158">
@@ -20873,7 +20865,7 @@
         <v>275.08999999999997</v>
       </c>
       <c r="R109" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S109" s="158">
@@ -20914,7 +20906,7 @@
         <v>259.41000000000003</v>
       </c>
       <c r="R110" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>146.89099999999999</v>
       </c>
       <c r="S110" s="158">
@@ -20952,7 +20944,7 @@
         <v>280.16000000000003</v>
       </c>
       <c r="R111" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S111" s="158">
@@ -20981,7 +20973,7 @@
       <c r="M112" s="83"/>
       <c r="P112" s="97"/>
       <c r="R112" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S112" s="158"/>
